--- a/个人日报/个人日报-樊阳.xlsx
+++ b/个人日报/个人日报-樊阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="72" windowWidth="14952" windowHeight="7992" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="72" windowWidth="14952" windowHeight="7992" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="封面" sheetId="6" r:id="rId3"/>
     <sheet name="2019-7-18" sheetId="1" r:id="rId4"/>
     <sheet name="2019-7-19" sheetId="7" r:id="rId5"/>
+    <sheet name="2019-7-20" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -353,6 +354,18 @@
   </si>
   <si>
     <t>复习结构体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习链表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习文件操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师讲课和编程，课后练习</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -14999,6 +15012,79 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8069580" y="76200"/>
+          <a:ext cx="1830705" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -16673,8 +16759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -16867,9 +16953,7 @@
       <c r="F12" s="127"/>
       <c r="G12" s="124"/>
       <c r="H12" s="125"/>
-      <c r="I12" s="101" t="s">
-        <v>55</v>
-      </c>
+      <c r="I12" s="101"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="37">
@@ -17055,6 +17139,390 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="110"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="147">
+        <v>43666</v>
+      </c>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="148">
+        <v>43666</v>
+      </c>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
+      <c r="A8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="24">
+      <c r="A9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="115"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="115"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="37">
+        <v>1</v>
+      </c>
+      <c r="B10" s="131" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="35">
+        <v>3</v>
+      </c>
+      <c r="F10" s="127" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="37">
+        <v>2</v>
+      </c>
+      <c r="B11" s="131" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="35">
+        <v>3</v>
+      </c>
+      <c r="F11" s="127" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="38">
+        <v>3</v>
+      </c>
+      <c r="B12" s="131"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="35">
+        <v>3</v>
+      </c>
+      <c r="F12" s="127"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="101"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="37">
+        <v>4</v>
+      </c>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="37">
+        <v>5</v>
+      </c>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="38">
+        <v>6</v>
+      </c>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="37">
+        <v>7</v>
+      </c>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="45">
+        <f>SUM(E10:E16)</f>
+        <v>9</v>
+      </c>
+      <c r="F17" s="120"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="46"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.2">
+      <c r="A18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="135" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="135"/>
+      <c r="D19" s="140" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="142"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="39">
+        <v>1</v>
+      </c>
+      <c r="B20" s="138"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="145"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="40">
+        <v>2</v>
+      </c>
+      <c r="B21" s="138"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="145"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A22" s="41">
+        <v>3</v>
+      </c>
+      <c r="B22" s="136"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="134"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/个人日报/个人日报-樊阳.xlsx
+++ b/个人日报/个人日报-樊阳.xlsx
@@ -13,6 +13,7 @@
     <sheet name="2019-7-18" sheetId="1" r:id="rId4"/>
     <sheet name="2019-7-19" sheetId="7" r:id="rId5"/>
     <sheet name="2019-7-20" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="67">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -366,6 +367,26 @@
   </si>
   <si>
     <t>老师讲课和编程，课后练习</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成项目的需求分析</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习软件工程概论</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师讲课</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成需求分析和初步软件代码编写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>写需求分析的模板和编写代码</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -15085,6 +15106,79 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8069580" y="76200"/>
+          <a:ext cx="1830705" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -17149,7 +17243,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:H11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -17338,9 +17432,7 @@
       <c r="B12" s="131"/>
       <c r="C12" s="126"/>
       <c r="D12" s="126"/>
-      <c r="E12" s="35">
-        <v>3</v>
-      </c>
+      <c r="E12" s="35"/>
       <c r="F12" s="127"/>
       <c r="G12" s="124"/>
       <c r="H12" s="125"/>
@@ -17407,7 +17499,7 @@
       <c r="D17" s="130"/>
       <c r="E17" s="45">
         <f>SUM(E10:E16)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F17" s="120"/>
       <c r="G17" s="121"/>
@@ -17523,6 +17615,389 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="146" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="110"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="147">
+        <v>43667</v>
+      </c>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="148">
+        <v>43667</v>
+      </c>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
+      <c r="A8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="24">
+      <c r="A9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="115"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="115"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="37">
+        <v>1</v>
+      </c>
+      <c r="B10" s="131" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="35">
+        <v>2</v>
+      </c>
+      <c r="F10" s="127" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="37">
+        <v>2</v>
+      </c>
+      <c r="B11" s="131" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="35">
+        <v>4</v>
+      </c>
+      <c r="F11" s="127" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="38">
+        <v>3</v>
+      </c>
+      <c r="B12" s="131"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="101"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="37">
+        <v>4</v>
+      </c>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="37">
+        <v>5</v>
+      </c>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="38">
+        <v>6</v>
+      </c>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="37">
+        <v>7</v>
+      </c>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="45">
+        <f>SUM(E10:E16)</f>
+        <v>6</v>
+      </c>
+      <c r="F17" s="120"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="46"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.2">
+      <c r="A18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="135" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="135"/>
+      <c r="D19" s="140" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="142"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="39">
+        <v>1</v>
+      </c>
+      <c r="B20" s="138"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="145"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="40">
+        <v>2</v>
+      </c>
+      <c r="B21" s="138"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="145"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A22" s="41">
+        <v>3</v>
+      </c>
+      <c r="B22" s="136"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="134"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/个人日报/个人日报-樊阳.xlsx
+++ b/个人日报/个人日报-樊阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="72" windowWidth="14952" windowHeight="7992" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="72" windowWidth="14952" windowHeight="7992" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="2019-7-18" sheetId="1" r:id="rId4"/>
     <sheet name="2019-7-19" sheetId="7" r:id="rId5"/>
     <sheet name="2019-7-20" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId7"/>
+    <sheet name="2019-7-21" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -1801,6 +1801,96 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1850,96 +1940,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -16453,17 +16453,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -16512,46 +16512,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="110"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="136"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="113"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="139"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="145"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -16570,19 +16570,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="114" t="s">
+      <c r="C9" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="116"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="142"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="114" t="s">
+      <c r="G9" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="115"/>
-      <c r="I9" s="116"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="142"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -16591,19 +16591,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
       <c r="F10" s="35">
         <v>1</v>
       </c>
-      <c r="G10" s="127" t="s">
+      <c r="G10" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="124"/>
-      <c r="I10" s="125"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="124"/>
       <c r="J10" s="101" t="s">
         <v>55</v>
       </c>
@@ -16612,19 +16612,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="127" t="s">
+      <c r="G11" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="124"/>
-      <c r="I11" s="125"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="124"/>
       <c r="J11" s="101" t="s">
         <v>55</v>
       </c>
@@ -16633,19 +16633,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
       <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="127" t="s">
+      <c r="G12" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="124"/>
-      <c r="I12" s="125"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="124"/>
       <c r="J12" s="101" t="s">
         <v>55</v>
       </c>
@@ -16654,68 +16654,68 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="125"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="124"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="125"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="124"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="125"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="124"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="125"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="124"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="131"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>6</v>
       </c>
-      <c r="G17" s="120"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="122"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -16735,57 +16735,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="135" t="s">
+      <c r="C19" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="135"/>
-      <c r="E19" s="140" t="s">
+      <c r="D19" s="109"/>
+      <c r="E19" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="142"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="116"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="138"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="145"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="119"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="138"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="145"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="119"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="136"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="134"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="108"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -16805,6 +16805,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C22:D22"/>
@@ -16813,28 +16835,6 @@
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -16860,17 +16860,17 @@
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
@@ -16922,13 +16922,13 @@
       <c r="B5" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="110"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="136"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="16" t="s">
@@ -16937,13 +16937,13 @@
       <c r="B6" s="147">
         <v>43665</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="113"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="17" t="s">
@@ -16952,13 +16952,13 @@
       <c r="B7" s="148">
         <v>43665</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="145"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="18" t="s">
@@ -16977,19 +16977,19 @@
       <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142"/>
       <c r="E9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="114" t="s">
+      <c r="F9" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="116"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
       <c r="I9" s="34" t="s">
         <v>9</v>
       </c>
@@ -16998,19 +16998,19 @@
       <c r="A10" s="37">
         <v>1</v>
       </c>
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
       <c r="E10" s="35">
         <v>3</v>
       </c>
-      <c r="F10" s="127" t="s">
+      <c r="F10" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="124"/>
       <c r="I10" s="101" t="s">
         <v>55</v>
       </c>
@@ -17019,19 +17019,19 @@
       <c r="A11" s="37">
         <v>2</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="35">
         <v>2</v>
       </c>
-      <c r="F11" s="127" t="s">
+      <c r="F11" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
       <c r="I11" s="101" t="s">
         <v>55</v>
       </c>
@@ -17040,81 +17040,81 @@
       <c r="A12" s="38">
         <v>3</v>
       </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
       <c r="I12" s="101"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="37">
         <v>4</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="37">
         <v>5</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="38">
         <v>6</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="37">
         <v>7</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
       <c r="E17" s="45">
         <f>SUM(E10:E16)</f>
         <v>5</v>
       </c>
-      <c r="F17" s="120"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
       <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:15" ht="16.2">
@@ -17134,66 +17134,90 @@
       <c r="A19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="135"/>
-      <c r="D19" s="140" t="s">
+      <c r="C19" s="109"/>
+      <c r="D19" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="142"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="39">
         <v>1</v>
       </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="145"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="40">
         <v>2</v>
       </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="145"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
     </row>
     <row r="22" spans="1:15" ht="16.2" thickBot="1">
       <c r="A22" s="41">
         <v>3</v>
       </c>
-      <c r="B22" s="136"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="133"/>
-      <c r="L22" s="133"/>
-      <c r="M22" s="133"/>
-      <c r="N22" s="133"/>
-      <c r="O22" s="134"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
     <mergeCell ref="J22:O22"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:I20"/>
@@ -17201,30 +17225,6 @@
     <mergeCell ref="D21:I21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:I22"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -17242,24 +17242,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
@@ -17308,16 +17308,16 @@
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="110"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="136"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="16" t="s">
@@ -17326,13 +17326,13 @@
       <c r="B6" s="147">
         <v>43666</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="113"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="17" t="s">
@@ -17341,13 +17341,13 @@
       <c r="B7" s="148">
         <v>43666</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="145"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="18" t="s">
@@ -17366,19 +17366,19 @@
       <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142"/>
       <c r="E9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="114" t="s">
+      <c r="F9" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="116"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
       <c r="I9" s="34" t="s">
         <v>9</v>
       </c>
@@ -17387,19 +17387,19 @@
       <c r="A10" s="37">
         <v>1</v>
       </c>
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
       <c r="E10" s="35">
         <v>3</v>
       </c>
-      <c r="F10" s="127" t="s">
+      <c r="F10" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="124"/>
       <c r="I10" s="101" t="s">
         <v>55</v>
       </c>
@@ -17408,19 +17408,19 @@
       <c r="A11" s="37">
         <v>2</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="35">
         <v>3</v>
       </c>
-      <c r="F11" s="127" t="s">
+      <c r="F11" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
       <c r="I11" s="101" t="s">
         <v>55</v>
       </c>
@@ -17429,81 +17429,81 @@
       <c r="A12" s="38">
         <v>3</v>
       </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
       <c r="I12" s="101"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="37">
         <v>4</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="37">
         <v>5</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="38">
         <v>6</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="37">
         <v>7</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
       <c r="E17" s="45">
         <f>SUM(E10:E16)</f>
         <v>6</v>
       </c>
-      <c r="F17" s="120"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
       <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -17523,57 +17523,439 @@
       <c r="A19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="135"/>
-      <c r="D19" s="140" t="s">
+      <c r="C19" s="109"/>
+      <c r="D19" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="142"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="39">
         <v>1</v>
       </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="145"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="40">
         <v>2</v>
       </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="145"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="41">
         <v>3</v>
       </c>
-      <c r="B22" s="136"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="134"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="108"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="132" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="146" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="136"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="147">
+        <v>43667</v>
+      </c>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="148">
+        <v>43667</v>
+      </c>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="145"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
+      <c r="A8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="24">
+      <c r="A9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="37">
+        <v>1</v>
+      </c>
+      <c r="B10" s="120" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="35">
+        <v>2</v>
+      </c>
+      <c r="F10" s="125" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="123"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="37">
+        <v>2</v>
+      </c>
+      <c r="B11" s="120" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="35">
+        <v>4</v>
+      </c>
+      <c r="F11" s="125" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="38">
+        <v>3</v>
+      </c>
+      <c r="B12" s="120"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="101"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="37">
+        <v>4</v>
+      </c>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="37">
+        <v>5</v>
+      </c>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="38">
+        <v>6</v>
+      </c>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="37">
+        <v>7</v>
+      </c>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="129" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="45">
+        <f>SUM(E10:E16)</f>
+        <v>6</v>
+      </c>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="46"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.2">
+      <c r="A18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="109" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="109"/>
+      <c r="D19" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="39">
+        <v>1</v>
+      </c>
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="40">
+        <v>2</v>
+      </c>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A22" s="41">
+        <v>3</v>
+      </c>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -17618,386 +18000,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="106" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-    </row>
-    <row r="2" spans="1:9" ht="21.6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.2">
-      <c r="A4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="146" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="110"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="147">
-        <v>43667</v>
-      </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="113"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="148">
-        <v>43667</v>
-      </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.2">
-      <c r="A8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" ht="24">
-      <c r="A9" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="114" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="37">
-        <v>1</v>
-      </c>
-      <c r="B10" s="131" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="35">
-        <v>2</v>
-      </c>
-      <c r="F10" s="127" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="37">
-        <v>2</v>
-      </c>
-      <c r="B11" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="35">
-        <v>4</v>
-      </c>
-      <c r="F11" s="127" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="38">
-        <v>3</v>
-      </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="101"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="37">
-        <v>4</v>
-      </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="36"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="37">
-        <v>5</v>
-      </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="36"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="38">
-        <v>6</v>
-      </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="37">
-        <v>7</v>
-      </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="36"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="128" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="45">
-        <f>SUM(E10:E16)</f>
-        <v>6</v>
-      </c>
-      <c r="F17" s="120"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="46"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.2">
-      <c r="A18" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="135" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="135"/>
-      <c r="D19" s="140" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="142"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="39">
-        <v>1</v>
-      </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="145"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="40">
-        <v>2</v>
-      </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="145"/>
-    </row>
-    <row r="22" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A22" s="41">
-        <v>3</v>
-      </c>
-      <c r="B22" s="136"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="134"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:I22"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/个人日报/个人日报-樊阳.xlsx
+++ b/个人日报/个人日报-樊阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="72" windowWidth="14952" windowHeight="7992" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="72" windowWidth="14952" windowHeight="7992" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="2019-7-19" sheetId="7" r:id="rId5"/>
     <sheet name="2019-7-20" sheetId="8" r:id="rId6"/>
     <sheet name="2019-7-21" sheetId="9" r:id="rId7"/>
+    <sheet name="2019-7-22" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="72">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -387,6 +388,26 @@
   </si>
   <si>
     <t>写需求分析的模板和编写代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成个人项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成项目需求分析的填写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成个人项目的基本功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码，查资料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析项目，填写表格</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1801,96 +1822,6 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1940,6 +1871,96 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -15107,6 +15128,79 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8069580" y="76200"/>
+          <a:ext cx="1830705" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16453,17 +16547,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -16512,46 +16606,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="136"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="110"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="139"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="113"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="143" t="s">
+      <c r="C7" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="145"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -16570,19 +16664,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="141"/>
-      <c r="E9" s="142"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="116"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="140" t="s">
+      <c r="G9" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="141"/>
-      <c r="I9" s="142"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="116"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -16591,19 +16685,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
       <c r="F10" s="35">
         <v>1</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="123"/>
-      <c r="I10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="125"/>
       <c r="J10" s="101" t="s">
         <v>55</v>
       </c>
@@ -16612,19 +16706,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="125" t="s">
+      <c r="G11" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="123"/>
-      <c r="I11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="125"/>
       <c r="J11" s="101" t="s">
         <v>55</v>
       </c>
@@ -16633,19 +16727,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
       <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="125" t="s">
+      <c r="G12" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="123"/>
-      <c r="I12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="125"/>
       <c r="J12" s="101" t="s">
         <v>55</v>
       </c>
@@ -16654,68 +16748,68 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="124"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="125"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="124"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="125"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="124"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="125"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="124"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="125"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="131"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="130"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>6</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="122"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -16735,57 +16829,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="109"/>
-      <c r="E19" s="114" t="s">
+      <c r="D19" s="135"/>
+      <c r="E19" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="116"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="142"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="112"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="119"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="145"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="119"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="145"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="108"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="134"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -16805,12 +16899,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
@@ -16819,22 +16923,12 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -16860,17 +16954,17 @@
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
@@ -16922,13 +17016,13 @@
       <c r="B5" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="136"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="110"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="16" t="s">
@@ -16937,13 +17031,13 @@
       <c r="B6" s="147">
         <v>43665</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="139"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="17" t="s">
@@ -16952,13 +17046,13 @@
       <c r="B7" s="148">
         <v>43665</v>
       </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="145"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="18" t="s">
@@ -16977,19 +17071,19 @@
       <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="142"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="116"/>
       <c r="E9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="140" t="s">
+      <c r="F9" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="141"/>
-      <c r="H9" s="142"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="116"/>
       <c r="I9" s="34" t="s">
         <v>9</v>
       </c>
@@ -16998,19 +17092,19 @@
       <c r="A10" s="37">
         <v>1</v>
       </c>
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
       <c r="E10" s="35">
         <v>3</v>
       </c>
-      <c r="F10" s="125" t="s">
+      <c r="F10" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="123"/>
-      <c r="H10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
       <c r="I10" s="101" t="s">
         <v>55</v>
       </c>
@@ -17019,19 +17113,19 @@
       <c r="A11" s="37">
         <v>2</v>
       </c>
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
       <c r="E11" s="35">
         <v>2</v>
       </c>
-      <c r="F11" s="125" t="s">
+      <c r="F11" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="123"/>
-      <c r="H11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
       <c r="I11" s="101" t="s">
         <v>55</v>
       </c>
@@ -17040,81 +17134,81 @@
       <c r="A12" s="38">
         <v>3</v>
       </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="124"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
       <c r="I12" s="101"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="37">
         <v>4</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="37">
         <v>5</v>
       </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="38">
         <v>6</v>
       </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="37">
         <v>7</v>
       </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="45">
         <f>SUM(E10:E16)</f>
         <v>5</v>
       </c>
-      <c r="F17" s="126"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
       <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:15" ht="16.2">
@@ -17134,90 +17228,66 @@
       <c r="A19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="114" t="s">
+      <c r="C19" s="135"/>
+      <c r="D19" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="116"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="142"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="39">
         <v>1</v>
       </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="145"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="40">
         <v>2</v>
       </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="145"/>
     </row>
     <row r="22" spans="1:15" ht="16.2" thickBot="1">
       <c r="A22" s="41">
         <v>3</v>
       </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="107"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="108"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="133"/>
+      <c r="M22" s="133"/>
+      <c r="N22" s="133"/>
+      <c r="O22" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
     <mergeCell ref="J22:O22"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:I20"/>
@@ -17225,6 +17295,30 @@
     <mergeCell ref="D21:I21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -17249,17 +17343,17 @@
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
@@ -17308,16 +17402,16 @@
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="136"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="110"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="16" t="s">
@@ -17326,13 +17420,13 @@
       <c r="B6" s="147">
         <v>43666</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="139"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="17" t="s">
@@ -17341,13 +17435,13 @@
       <c r="B7" s="148">
         <v>43666</v>
       </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="145"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="18" t="s">
@@ -17366,19 +17460,19 @@
       <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="142"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="116"/>
       <c r="E9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="140" t="s">
+      <c r="F9" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="141"/>
-      <c r="H9" s="142"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="116"/>
       <c r="I9" s="34" t="s">
         <v>9</v>
       </c>
@@ -17387,19 +17481,19 @@
       <c r="A10" s="37">
         <v>1</v>
       </c>
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
       <c r="E10" s="35">
         <v>3</v>
       </c>
-      <c r="F10" s="125" t="s">
+      <c r="F10" s="127" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="123"/>
-      <c r="H10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
       <c r="I10" s="101" t="s">
         <v>55</v>
       </c>
@@ -17408,19 +17502,19 @@
       <c r="A11" s="37">
         <v>2</v>
       </c>
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
       <c r="E11" s="35">
         <v>3</v>
       </c>
-      <c r="F11" s="125" t="s">
+      <c r="F11" s="127" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="123"/>
-      <c r="H11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
       <c r="I11" s="101" t="s">
         <v>55</v>
       </c>
@@ -17429,81 +17523,81 @@
       <c r="A12" s="38">
         <v>3</v>
       </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="124"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
       <c r="I12" s="101"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="37">
         <v>4</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="37">
         <v>5</v>
       </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="38">
         <v>6</v>
       </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="37">
         <v>7</v>
       </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="45">
         <f>SUM(E10:E16)</f>
         <v>6</v>
       </c>
-      <c r="F17" s="126"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
       <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -17523,57 +17617,439 @@
       <c r="A19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="114" t="s">
+      <c r="C19" s="135"/>
+      <c r="D19" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="116"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="142"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="39">
         <v>1</v>
       </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="145"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="40">
         <v>2</v>
       </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="145"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="41">
         <v>3</v>
       </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="108"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="134"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="146" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="110"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="147">
+        <v>43667</v>
+      </c>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="148">
+        <v>43667</v>
+      </c>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
+      <c r="A8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="24">
+      <c r="A9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="115"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="115"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="37">
+        <v>1</v>
+      </c>
+      <c r="B10" s="131" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="35">
+        <v>2</v>
+      </c>
+      <c r="F10" s="127" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="37">
+        <v>2</v>
+      </c>
+      <c r="B11" s="131" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="35">
+        <v>4</v>
+      </c>
+      <c r="F11" s="127" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="38">
+        <v>3</v>
+      </c>
+      <c r="B12" s="131"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="101"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="37">
+        <v>4</v>
+      </c>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="37">
+        <v>5</v>
+      </c>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="38">
+        <v>6</v>
+      </c>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="37">
+        <v>7</v>
+      </c>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="45">
+        <f>SUM(E10:E16)</f>
+        <v>6</v>
+      </c>
+      <c r="F17" s="120"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="46"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.2">
+      <c r="A18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="135" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="135"/>
+      <c r="D19" s="140" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="142"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="39">
+        <v>1</v>
+      </c>
+      <c r="B20" s="138"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="145"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="40">
+        <v>2</v>
+      </c>
+      <c r="B21" s="138"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="145"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A22" s="41">
+        <v>3</v>
+      </c>
+      <c r="B22" s="136"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -17620,28 +18096,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:H11"/>
+      <selection activeCell="F10" sqref="F10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
@@ -17691,45 +18167,45 @@
         <v>1</v>
       </c>
       <c r="B5" s="146" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="136"/>
+        <v>67</v>
+      </c>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="110"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="147">
-        <v>43667</v>
-      </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="139"/>
+        <v>43668</v>
+      </c>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="148">
-        <v>43667</v>
-      </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="145"/>
+        <v>43668</v>
+      </c>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="18" t="s">
@@ -17748,19 +18224,19 @@
       <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="142"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="116"/>
       <c r="E9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="140" t="s">
+      <c r="F9" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="141"/>
-      <c r="H9" s="142"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="116"/>
       <c r="I9" s="34" t="s">
         <v>9</v>
       </c>
@@ -17769,19 +18245,19 @@
       <c r="A10" s="37">
         <v>1</v>
       </c>
-      <c r="B10" s="120" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
+      <c r="B10" s="131" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
       <c r="E10" s="35">
         <v>2</v>
       </c>
-      <c r="F10" s="125" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="123"/>
-      <c r="H10" s="124"/>
+      <c r="F10" s="127" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
       <c r="I10" s="101" t="s">
         <v>55</v>
       </c>
@@ -17790,19 +18266,19 @@
       <c r="A11" s="37">
         <v>2</v>
       </c>
-      <c r="B11" s="120" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
+      <c r="B11" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
       <c r="E11" s="35">
         <v>4</v>
       </c>
-      <c r="F11" s="125" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="123"/>
-      <c r="H11" s="124"/>
+      <c r="F11" s="127" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
       <c r="I11" s="101" t="s">
         <v>55</v>
       </c>
@@ -17811,81 +18287,83 @@
       <c r="A12" s="38">
         <v>3</v>
       </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="101"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="101" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="37">
         <v>4</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="37">
         <v>5</v>
       </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="38">
         <v>6</v>
       </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="37">
         <v>7</v>
       </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="45">
         <f>SUM(E10:E16)</f>
         <v>6</v>
       </c>
-      <c r="F17" s="126"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
       <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -17905,57 +18383,57 @@
       <c r="A19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="114" t="s">
+      <c r="C19" s="135"/>
+      <c r="D19" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="116"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="142"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="39">
         <v>1</v>
       </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="145"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="40">
         <v>2</v>
       </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="145"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="41">
         <v>3</v>
       </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="108"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -17997,7 +18475,6 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/个人日报/个人日报-樊阳.xlsx
+++ b/个人日报/个人日报-樊阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="72" windowWidth="14952" windowHeight="7992" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="72" windowWidth="14952" windowHeight="7992" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="2019-7-20" sheetId="8" r:id="rId6"/>
     <sheet name="2019-7-21" sheetId="9" r:id="rId7"/>
     <sheet name="2019-7-22" sheetId="10" r:id="rId8"/>
+    <sheet name="2019-7-23" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="77">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -408,6 +409,26 @@
   </si>
   <si>
     <t>分析项目，填写表格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成需求分析报告和控制台程序的最后修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求分析报告</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用画图软件完善流程图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善控制台程序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己编程</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1822,6 +1843,96 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1871,96 +1982,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -15273,6 +15294,79 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8069580" y="76200"/>
+          <a:ext cx="1830705" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -16547,17 +16641,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -16606,46 +16700,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="110"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="136"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="113"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="139"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="145"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -16664,19 +16758,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="114" t="s">
+      <c r="C9" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="116"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="142"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="114" t="s">
+      <c r="G9" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="115"/>
-      <c r="I9" s="116"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="142"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -16685,19 +16779,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
       <c r="F10" s="35">
         <v>1</v>
       </c>
-      <c r="G10" s="127" t="s">
+      <c r="G10" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="124"/>
-      <c r="I10" s="125"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="124"/>
       <c r="J10" s="101" t="s">
         <v>55</v>
       </c>
@@ -16706,19 +16800,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="127" t="s">
+      <c r="G11" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="124"/>
-      <c r="I11" s="125"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="124"/>
       <c r="J11" s="101" t="s">
         <v>55</v>
       </c>
@@ -16727,19 +16821,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
       <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="127" t="s">
+      <c r="G12" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="124"/>
-      <c r="I12" s="125"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="124"/>
       <c r="J12" s="101" t="s">
         <v>55</v>
       </c>
@@ -16748,68 +16842,68 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="125"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="124"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="125"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="124"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="125"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="124"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="125"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="124"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="131"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>6</v>
       </c>
-      <c r="G17" s="120"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="122"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -16829,57 +16923,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="135" t="s">
+      <c r="C19" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="135"/>
-      <c r="E19" s="140" t="s">
+      <c r="D19" s="109"/>
+      <c r="E19" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="142"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="116"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="138"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="145"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="119"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="138"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="145"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="119"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="136"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="134"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="108"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -16899,6 +16993,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C22:D22"/>
@@ -16907,28 +17023,6 @@
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -16954,17 +17048,17 @@
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
@@ -17016,13 +17110,13 @@
       <c r="B5" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="110"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="136"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="16" t="s">
@@ -17031,13 +17125,13 @@
       <c r="B6" s="147">
         <v>43665</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="113"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="17" t="s">
@@ -17046,13 +17140,13 @@
       <c r="B7" s="148">
         <v>43665</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="145"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="18" t="s">
@@ -17071,19 +17165,19 @@
       <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142"/>
       <c r="E9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="114" t="s">
+      <c r="F9" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="116"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
       <c r="I9" s="34" t="s">
         <v>9</v>
       </c>
@@ -17092,19 +17186,19 @@
       <c r="A10" s="37">
         <v>1</v>
       </c>
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
       <c r="E10" s="35">
         <v>3</v>
       </c>
-      <c r="F10" s="127" t="s">
+      <c r="F10" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="124"/>
       <c r="I10" s="101" t="s">
         <v>55</v>
       </c>
@@ -17113,19 +17207,19 @@
       <c r="A11" s="37">
         <v>2</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="35">
         <v>2</v>
       </c>
-      <c r="F11" s="127" t="s">
+      <c r="F11" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
       <c r="I11" s="101" t="s">
         <v>55</v>
       </c>
@@ -17134,81 +17228,81 @@
       <c r="A12" s="38">
         <v>3</v>
       </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
       <c r="I12" s="101"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="37">
         <v>4</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="37">
         <v>5</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="38">
         <v>6</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="37">
         <v>7</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
       <c r="E17" s="45">
         <f>SUM(E10:E16)</f>
         <v>5</v>
       </c>
-      <c r="F17" s="120"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
       <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:15" ht="16.2">
@@ -17228,66 +17322,90 @@
       <c r="A19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="135"/>
-      <c r="D19" s="140" t="s">
+      <c r="C19" s="109"/>
+      <c r="D19" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="142"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="39">
         <v>1</v>
       </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="145"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="40">
         <v>2</v>
       </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="145"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
     </row>
     <row r="22" spans="1:15" ht="16.2" thickBot="1">
       <c r="A22" s="41">
         <v>3</v>
       </c>
-      <c r="B22" s="136"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="133"/>
-      <c r="L22" s="133"/>
-      <c r="M22" s="133"/>
-      <c r="N22" s="133"/>
-      <c r="O22" s="134"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
     <mergeCell ref="J22:O22"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:I20"/>
@@ -17295,30 +17413,6 @@
     <mergeCell ref="D21:I21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:I22"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -17343,17 +17437,17 @@
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
@@ -17402,16 +17496,16 @@
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="110"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="136"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="16" t="s">
@@ -17420,13 +17514,13 @@
       <c r="B6" s="147">
         <v>43666</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="113"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="17" t="s">
@@ -17435,13 +17529,13 @@
       <c r="B7" s="148">
         <v>43666</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="145"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="18" t="s">
@@ -17460,19 +17554,19 @@
       <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142"/>
       <c r="E9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="114" t="s">
+      <c r="F9" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="116"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
       <c r="I9" s="34" t="s">
         <v>9</v>
       </c>
@@ -17481,19 +17575,19 @@
       <c r="A10" s="37">
         <v>1</v>
       </c>
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
       <c r="E10" s="35">
         <v>3</v>
       </c>
-      <c r="F10" s="127" t="s">
+      <c r="F10" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="124"/>
       <c r="I10" s="101" t="s">
         <v>55</v>
       </c>
@@ -17502,19 +17596,19 @@
       <c r="A11" s="37">
         <v>2</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="35">
         <v>3</v>
       </c>
-      <c r="F11" s="127" t="s">
+      <c r="F11" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
       <c r="I11" s="101" t="s">
         <v>55</v>
       </c>
@@ -17523,81 +17617,81 @@
       <c r="A12" s="38">
         <v>3</v>
       </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
       <c r="I12" s="101"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="37">
         <v>4</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="37">
         <v>5</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="38">
         <v>6</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="37">
         <v>7</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
       <c r="E17" s="45">
         <f>SUM(E10:E16)</f>
         <v>6</v>
       </c>
-      <c r="F17" s="120"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
       <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -17617,57 +17711,439 @@
       <c r="A19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="135"/>
-      <c r="D19" s="140" t="s">
+      <c r="C19" s="109"/>
+      <c r="D19" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="142"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="39">
         <v>1</v>
       </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="145"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="40">
         <v>2</v>
       </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="145"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="41">
         <v>3</v>
       </c>
-      <c r="B22" s="136"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="134"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="108"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="132" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="146" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="136"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="147">
+        <v>43667</v>
+      </c>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="148">
+        <v>43667</v>
+      </c>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="145"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
+      <c r="A8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="24">
+      <c r="A9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="37">
+        <v>1</v>
+      </c>
+      <c r="B10" s="120" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="35">
+        <v>2</v>
+      </c>
+      <c r="F10" s="125" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="123"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="37">
+        <v>2</v>
+      </c>
+      <c r="B11" s="120" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="35">
+        <v>4</v>
+      </c>
+      <c r="F11" s="125" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="38">
+        <v>3</v>
+      </c>
+      <c r="B12" s="120"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="101"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="37">
+        <v>4</v>
+      </c>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="37">
+        <v>5</v>
+      </c>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="38">
+        <v>6</v>
+      </c>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="37">
+        <v>7</v>
+      </c>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="129" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="45">
+        <f>SUM(E10:E16)</f>
+        <v>6</v>
+      </c>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="46"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.2">
+      <c r="A18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="109" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="109"/>
+      <c r="D19" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="39">
+        <v>1</v>
+      </c>
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="40">
+        <v>2</v>
+      </c>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A22" s="41">
+        <v>3</v>
+      </c>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -17714,28 +18190,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:H11"/>
+      <selection activeCell="F10" sqref="F10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
@@ -17785,45 +18261,45 @@
         <v>1</v>
       </c>
       <c r="B5" s="146" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="110"/>
+        <v>67</v>
+      </c>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="136"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="147">
-        <v>43667</v>
-      </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="113"/>
+        <v>43668</v>
+      </c>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="148">
-        <v>43667</v>
-      </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
+        <v>43668</v>
+      </c>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="145"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="18" t="s">
@@ -17842,19 +18318,19 @@
       <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142"/>
       <c r="E9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="114" t="s">
+      <c r="F9" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="116"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
       <c r="I9" s="34" t="s">
         <v>9</v>
       </c>
@@ -17863,19 +18339,19 @@
       <c r="A10" s="37">
         <v>1</v>
       </c>
-      <c r="B10" s="131" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
+      <c r="B10" s="120" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
       <c r="E10" s="35">
         <v>2</v>
       </c>
-      <c r="F10" s="127" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
+      <c r="F10" s="125" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="123"/>
+      <c r="H10" s="124"/>
       <c r="I10" s="101" t="s">
         <v>55</v>
       </c>
@@ -17884,19 +18360,19 @@
       <c r="A11" s="37">
         <v>2</v>
       </c>
-      <c r="B11" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
+      <c r="B11" s="120" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="35">
         <v>4</v>
       </c>
-      <c r="F11" s="127" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
+      <c r="F11" s="125" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
       <c r="I11" s="101" t="s">
         <v>55</v>
       </c>
@@ -17905,81 +18381,83 @@
       <c r="A12" s="38">
         <v>3</v>
       </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="101"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="101" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="37">
         <v>4</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="37">
         <v>5</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="38">
         <v>6</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="37">
         <v>7</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
       <c r="E17" s="45">
         <f>SUM(E10:E16)</f>
         <v>6</v>
       </c>
-      <c r="F17" s="120"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
       <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -17999,57 +18477,57 @@
       <c r="A19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="135"/>
-      <c r="D19" s="140" t="s">
+      <c r="C19" s="109"/>
+      <c r="D19" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="142"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="39">
         <v>1</v>
       </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="145"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="40">
         <v>2</v>
       </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="145"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="41">
         <v>3</v>
       </c>
-      <c r="B22" s="136"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="134"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -18096,28 +18574,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:H10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
@@ -18167,45 +18645,45 @@
         <v>1</v>
       </c>
       <c r="B5" s="146" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="110"/>
+        <v>72</v>
+      </c>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="136"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="147">
-        <v>43668</v>
-      </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="113"/>
+        <v>43669</v>
+      </c>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="148">
-        <v>43668</v>
-      </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
+        <v>43669</v>
+      </c>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="145"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="18" t="s">
@@ -18224,19 +18702,19 @@
       <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142"/>
       <c r="E9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="114" t="s">
+      <c r="F9" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="116"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
       <c r="I9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18245,19 +18723,19 @@
       <c r="A10" s="37">
         <v>1</v>
       </c>
-      <c r="B10" s="131" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
+      <c r="B10" s="120" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
       <c r="E10" s="35">
-        <v>2</v>
-      </c>
-      <c r="F10" s="127" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
+        <v>3</v>
+      </c>
+      <c r="F10" s="125" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="123"/>
+      <c r="H10" s="124"/>
       <c r="I10" s="101" t="s">
         <v>55</v>
       </c>
@@ -18266,19 +18744,19 @@
       <c r="A11" s="37">
         <v>2</v>
       </c>
-      <c r="B11" s="131" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
+      <c r="B11" s="120" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="35">
         <v>4</v>
       </c>
-      <c r="F11" s="127" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
+      <c r="F11" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
       <c r="I11" s="101" t="s">
         <v>55</v>
       </c>
@@ -18287,83 +18765,81 @@
       <c r="A12" s="38">
         <v>3</v>
       </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="101" t="s">
-        <v>55</v>
-      </c>
+      <c r="F12" s="125"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="101"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="37">
         <v>4</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="37">
         <v>5</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="38">
         <v>6</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="37">
         <v>7</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
       <c r="E17" s="45">
         <f>SUM(E10:E16)</f>
-        <v>6</v>
-      </c>
-      <c r="F17" s="120"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
+        <v>7</v>
+      </c>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
       <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -18383,57 +18859,57 @@
       <c r="A19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="135"/>
-      <c r="D19" s="140" t="s">
+      <c r="C19" s="109"/>
+      <c r="D19" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="142"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="39">
         <v>1</v>
       </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="145"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="40">
         <v>2</v>
       </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="145"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="41">
         <v>3</v>
       </c>
-      <c r="B22" s="136"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="134"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/个人日报/个人日报-樊阳.xlsx
+++ b/个人日报/个人日报-樊阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="72" windowWidth="14952" windowHeight="7992" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="72" windowWidth="14952" windowHeight="7992" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="2019-7-21" sheetId="9" r:id="rId7"/>
     <sheet name="2019-7-22" sheetId="10" r:id="rId8"/>
     <sheet name="2019-7-23" sheetId="11" r:id="rId9"/>
+    <sheet name="2019-7-24" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="82">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -429,6 +430,26 @@
   </si>
   <si>
     <t>自己编程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成MFC界面设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习MFC功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成MFC界面设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上网学习</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编程</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1843,96 +1864,6 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1982,6 +1913,96 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -15367,6 +15388,79 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8069580" y="76200"/>
+          <a:ext cx="1830705" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -16052,6 +16146,389 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="146" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="110"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="147">
+        <v>43671</v>
+      </c>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="148">
+        <v>43671</v>
+      </c>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
+      <c r="A8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="24">
+      <c r="A9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="115"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="115"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="37">
+        <v>1</v>
+      </c>
+      <c r="B10" s="131" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="35">
+        <v>3</v>
+      </c>
+      <c r="F10" s="127" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="37">
+        <v>2</v>
+      </c>
+      <c r="B11" s="131" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="35">
+        <v>4</v>
+      </c>
+      <c r="F11" s="127" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="38">
+        <v>3</v>
+      </c>
+      <c r="B12" s="131"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="37">
+        <v>4</v>
+      </c>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="37">
+        <v>5</v>
+      </c>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="38">
+        <v>6</v>
+      </c>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="37">
+        <v>7</v>
+      </c>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="45">
+        <f>SUM(E10:E16)</f>
+        <v>7</v>
+      </c>
+      <c r="F17" s="120"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="46"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.2">
+      <c r="A18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="135" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="135"/>
+      <c r="D19" s="140" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="142"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="39">
+        <v>1</v>
+      </c>
+      <c r="B20" s="138"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="145"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="40">
+        <v>2</v>
+      </c>
+      <c r="B21" s="138"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="145"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A22" s="41">
+        <v>3</v>
+      </c>
+      <c r="B22" s="136"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="134"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E111"/>
@@ -16641,17 +17118,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -16700,46 +17177,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="136"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="110"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="139"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="113"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="143" t="s">
+      <c r="C7" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="145"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -16758,19 +17235,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="141"/>
-      <c r="E9" s="142"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="116"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="140" t="s">
+      <c r="G9" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="141"/>
-      <c r="I9" s="142"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="116"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -16779,19 +17256,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
       <c r="F10" s="35">
         <v>1</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="123"/>
-      <c r="I10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="125"/>
       <c r="J10" s="101" t="s">
         <v>55</v>
       </c>
@@ -16800,19 +17277,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="125" t="s">
+      <c r="G11" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="123"/>
-      <c r="I11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="125"/>
       <c r="J11" s="101" t="s">
         <v>55</v>
       </c>
@@ -16821,19 +17298,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
       <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="125" t="s">
+      <c r="G12" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="123"/>
-      <c r="I12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="125"/>
       <c r="J12" s="101" t="s">
         <v>55</v>
       </c>
@@ -16842,68 +17319,68 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="124"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="125"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="124"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="125"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="124"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="125"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="124"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="125"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="131"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="130"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>6</v>
       </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="122"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -16923,57 +17400,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="109"/>
-      <c r="E19" s="114" t="s">
+      <c r="D19" s="135"/>
+      <c r="E19" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="116"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="142"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="112"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="119"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="145"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="119"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="145"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="108"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="134"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -16993,12 +17470,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
@@ -17007,22 +17494,12 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -17048,17 +17525,17 @@
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
@@ -17110,13 +17587,13 @@
       <c r="B5" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="136"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="110"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="16" t="s">
@@ -17125,13 +17602,13 @@
       <c r="B6" s="147">
         <v>43665</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="139"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="17" t="s">
@@ -17140,13 +17617,13 @@
       <c r="B7" s="148">
         <v>43665</v>
       </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="145"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="18" t="s">
@@ -17165,19 +17642,19 @@
       <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="142"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="116"/>
       <c r="E9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="140" t="s">
+      <c r="F9" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="141"/>
-      <c r="H9" s="142"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="116"/>
       <c r="I9" s="34" t="s">
         <v>9</v>
       </c>
@@ -17186,19 +17663,19 @@
       <c r="A10" s="37">
         <v>1</v>
       </c>
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
       <c r="E10" s="35">
         <v>3</v>
       </c>
-      <c r="F10" s="125" t="s">
+      <c r="F10" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="123"/>
-      <c r="H10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
       <c r="I10" s="101" t="s">
         <v>55</v>
       </c>
@@ -17207,19 +17684,19 @@
       <c r="A11" s="37">
         <v>2</v>
       </c>
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
       <c r="E11" s="35">
         <v>2</v>
       </c>
-      <c r="F11" s="125" t="s">
+      <c r="F11" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="123"/>
-      <c r="H11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
       <c r="I11" s="101" t="s">
         <v>55</v>
       </c>
@@ -17228,81 +17705,81 @@
       <c r="A12" s="38">
         <v>3</v>
       </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="124"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
       <c r="I12" s="101"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="37">
         <v>4</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="37">
         <v>5</v>
       </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="38">
         <v>6</v>
       </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="37">
         <v>7</v>
       </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="45">
         <f>SUM(E10:E16)</f>
         <v>5</v>
       </c>
-      <c r="F17" s="126"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
       <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:15" ht="16.2">
@@ -17322,90 +17799,66 @@
       <c r="A19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="114" t="s">
+      <c r="C19" s="135"/>
+      <c r="D19" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="116"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="142"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="39">
         <v>1</v>
       </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="145"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="40">
         <v>2</v>
       </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="145"/>
     </row>
     <row r="22" spans="1:15" ht="16.2" thickBot="1">
       <c r="A22" s="41">
         <v>3</v>
       </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="107"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="108"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="133"/>
+      <c r="M22" s="133"/>
+      <c r="N22" s="133"/>
+      <c r="O22" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
     <mergeCell ref="J22:O22"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:I20"/>
@@ -17413,6 +17866,30 @@
     <mergeCell ref="D21:I21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -17437,17 +17914,17 @@
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
@@ -17496,16 +17973,16 @@
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="136"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="110"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="16" t="s">
@@ -17514,13 +17991,13 @@
       <c r="B6" s="147">
         <v>43666</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="139"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="17" t="s">
@@ -17529,13 +18006,13 @@
       <c r="B7" s="148">
         <v>43666</v>
       </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="145"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="18" t="s">
@@ -17554,19 +18031,19 @@
       <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="142"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="116"/>
       <c r="E9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="140" t="s">
+      <c r="F9" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="141"/>
-      <c r="H9" s="142"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="116"/>
       <c r="I9" s="34" t="s">
         <v>9</v>
       </c>
@@ -17575,19 +18052,19 @@
       <c r="A10" s="37">
         <v>1</v>
       </c>
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
       <c r="E10" s="35">
         <v>3</v>
       </c>
-      <c r="F10" s="125" t="s">
+      <c r="F10" s="127" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="123"/>
-      <c r="H10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
       <c r="I10" s="101" t="s">
         <v>55</v>
       </c>
@@ -17596,19 +18073,19 @@
       <c r="A11" s="37">
         <v>2</v>
       </c>
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
       <c r="E11" s="35">
         <v>3</v>
       </c>
-      <c r="F11" s="125" t="s">
+      <c r="F11" s="127" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="123"/>
-      <c r="H11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
       <c r="I11" s="101" t="s">
         <v>55</v>
       </c>
@@ -17617,81 +18094,81 @@
       <c r="A12" s="38">
         <v>3</v>
       </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="124"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
       <c r="I12" s="101"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="37">
         <v>4</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="37">
         <v>5</v>
       </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="38">
         <v>6</v>
       </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="37">
         <v>7</v>
       </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="45">
         <f>SUM(E10:E16)</f>
         <v>6</v>
       </c>
-      <c r="F17" s="126"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
       <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -17711,57 +18188,439 @@
       <c r="A19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="114" t="s">
+      <c r="C19" s="135"/>
+      <c r="D19" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="116"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="142"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="39">
         <v>1</v>
       </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="145"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="40">
         <v>2</v>
       </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="145"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="41">
         <v>3</v>
       </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="108"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="134"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="146" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="110"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="147">
+        <v>43667</v>
+      </c>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="148">
+        <v>43667</v>
+      </c>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
+      <c r="A8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="24">
+      <c r="A9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="115"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="115"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="37">
+        <v>1</v>
+      </c>
+      <c r="B10" s="131" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="35">
+        <v>2</v>
+      </c>
+      <c r="F10" s="127" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="37">
+        <v>2</v>
+      </c>
+      <c r="B11" s="131" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="35">
+        <v>4</v>
+      </c>
+      <c r="F11" s="127" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="38">
+        <v>3</v>
+      </c>
+      <c r="B12" s="131"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="101"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="37">
+        <v>4</v>
+      </c>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="37">
+        <v>5</v>
+      </c>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="38">
+        <v>6</v>
+      </c>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="37">
+        <v>7</v>
+      </c>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="45">
+        <f>SUM(E10:E16)</f>
+        <v>6</v>
+      </c>
+      <c r="F17" s="120"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="46"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.2">
+      <c r="A18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="135" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="135"/>
+      <c r="D19" s="140" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="142"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="39">
+        <v>1</v>
+      </c>
+      <c r="B20" s="138"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="145"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="40">
+        <v>2</v>
+      </c>
+      <c r="B21" s="138"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="145"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A22" s="41">
+        <v>3</v>
+      </c>
+      <c r="B22" s="136"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -17808,28 +18667,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:H11"/>
+      <selection activeCell="F10" sqref="F10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
@@ -17879,45 +18738,45 @@
         <v>1</v>
       </c>
       <c r="B5" s="146" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="136"/>
+        <v>67</v>
+      </c>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="110"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="147">
-        <v>43667</v>
-      </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="139"/>
+        <v>43668</v>
+      </c>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="148">
-        <v>43667</v>
-      </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="145"/>
+        <v>43668</v>
+      </c>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="18" t="s">
@@ -17936,19 +18795,19 @@
       <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="142"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="116"/>
       <c r="E9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="140" t="s">
+      <c r="F9" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="141"/>
-      <c r="H9" s="142"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="116"/>
       <c r="I9" s="34" t="s">
         <v>9</v>
       </c>
@@ -17957,19 +18816,19 @@
       <c r="A10" s="37">
         <v>1</v>
       </c>
-      <c r="B10" s="120" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
+      <c r="B10" s="131" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
       <c r="E10" s="35">
         <v>2</v>
       </c>
-      <c r="F10" s="125" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="123"/>
-      <c r="H10" s="124"/>
+      <c r="F10" s="127" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
       <c r="I10" s="101" t="s">
         <v>55</v>
       </c>
@@ -17978,19 +18837,19 @@
       <c r="A11" s="37">
         <v>2</v>
       </c>
-      <c r="B11" s="120" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
+      <c r="B11" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
       <c r="E11" s="35">
         <v>4</v>
       </c>
-      <c r="F11" s="125" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="123"/>
-      <c r="H11" s="124"/>
+      <c r="F11" s="127" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
       <c r="I11" s="101" t="s">
         <v>55</v>
       </c>
@@ -17999,81 +18858,83 @@
       <c r="A12" s="38">
         <v>3</v>
       </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="101"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="101" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="37">
         <v>4</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="37">
         <v>5</v>
       </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="38">
         <v>6</v>
       </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="37">
         <v>7</v>
       </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="45">
         <f>SUM(E10:E16)</f>
         <v>6</v>
       </c>
-      <c r="F17" s="126"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
       <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -18093,57 +18954,57 @@
       <c r="A19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="114" t="s">
+      <c r="C19" s="135"/>
+      <c r="D19" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="116"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="142"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="39">
         <v>1</v>
       </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="145"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="40">
         <v>2</v>
       </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="145"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="41">
         <v>3</v>
       </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="108"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -18190,28 +19051,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:H10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
@@ -18261,45 +19122,45 @@
         <v>1</v>
       </c>
       <c r="B5" s="146" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="136"/>
+        <v>72</v>
+      </c>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="110"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="147">
-        <v>43668</v>
-      </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="139"/>
+        <v>43669</v>
+      </c>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="148">
-        <v>43668</v>
-      </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="145"/>
+        <v>43669</v>
+      </c>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="18" t="s">
@@ -18318,19 +19179,19 @@
       <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="142"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="116"/>
       <c r="E9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="140" t="s">
+      <c r="F9" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="141"/>
-      <c r="H9" s="142"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="116"/>
       <c r="I9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18339,19 +19200,19 @@
       <c r="A10" s="37">
         <v>1</v>
       </c>
-      <c r="B10" s="120" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
+      <c r="B10" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
       <c r="E10" s="35">
-        <v>2</v>
-      </c>
-      <c r="F10" s="125" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="123"/>
-      <c r="H10" s="124"/>
+        <v>3</v>
+      </c>
+      <c r="F10" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
       <c r="I10" s="101" t="s">
         <v>55</v>
       </c>
@@ -18360,19 +19221,19 @@
       <c r="A11" s="37">
         <v>2</v>
       </c>
-      <c r="B11" s="120" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
+      <c r="B11" s="131" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
       <c r="E11" s="35">
         <v>4</v>
       </c>
-      <c r="F11" s="125" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="123"/>
-      <c r="H11" s="124"/>
+      <c r="F11" s="127" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
       <c r="I11" s="101" t="s">
         <v>55</v>
       </c>
@@ -18381,83 +19242,81 @@
       <c r="A12" s="38">
         <v>3</v>
       </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="101" t="s">
-        <v>55</v>
-      </c>
+      <c r="F12" s="127"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="101"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="37">
         <v>4</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="37">
         <v>5</v>
       </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="38">
         <v>6</v>
       </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="37">
         <v>7</v>
       </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="45">
         <f>SUM(E10:E16)</f>
-        <v>6</v>
-      </c>
-      <c r="F17" s="126"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
+        <v>7</v>
+      </c>
+      <c r="F17" s="120"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
       <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -18477,57 +19336,57 @@
       <c r="A19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="114" t="s">
+      <c r="C19" s="135"/>
+      <c r="D19" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="116"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="142"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="39">
         <v>1</v>
       </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="145"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="40">
         <v>2</v>
       </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="145"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="41">
         <v>3</v>
       </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="108"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -18572,385 +19431,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="132" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-    </row>
-    <row r="2" spans="1:9" ht="21.6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.2">
-      <c r="A4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="146" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="136"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="147">
-        <v>43669</v>
-      </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="139"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="148">
-        <v>43669</v>
-      </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="145"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.2">
-      <c r="A8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" ht="24">
-      <c r="A9" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="140" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="140" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="141"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="37">
-        <v>1</v>
-      </c>
-      <c r="B10" s="120" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="35">
-        <v>3</v>
-      </c>
-      <c r="F10" s="125" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="123"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="37">
-        <v>2</v>
-      </c>
-      <c r="B11" s="120" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="35">
-        <v>4</v>
-      </c>
-      <c r="F11" s="125" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="123"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="38">
-        <v>3</v>
-      </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="101"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="37">
-        <v>4</v>
-      </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="36"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="37">
-        <v>5</v>
-      </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="36"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="38">
-        <v>6</v>
-      </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="37">
-        <v>7</v>
-      </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="36"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="45">
-        <f>SUM(E10:E16)</f>
-        <v>7</v>
-      </c>
-      <c r="F17" s="126"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="46"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.2">
-      <c r="A18" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="114" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="116"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="39">
-        <v>1</v>
-      </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="40">
-        <v>2</v>
-      </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
-    </row>
-    <row r="22" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A22" s="41">
-        <v>3</v>
-      </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="108"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/个人日报/个人日报-樊阳.xlsx
+++ b/个人日报/个人日报-樊阳.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="82">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1864,6 +1864,96 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1913,96 +2003,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -16151,23 +16151,23 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
@@ -16219,13 +16219,13 @@
       <c r="B5" s="146" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="110"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="136"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="16" t="s">
@@ -16234,13 +16234,13 @@
       <c r="B6" s="147">
         <v>43671</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="113"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="17" t="s">
@@ -16249,13 +16249,13 @@
       <c r="B7" s="148">
         <v>43671</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="145"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="18" t="s">
@@ -16274,19 +16274,19 @@
       <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142"/>
       <c r="E9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="114" t="s">
+      <c r="F9" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="116"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
       <c r="I9" s="34" t="s">
         <v>9</v>
       </c>
@@ -16295,19 +16295,19 @@
       <c r="A10" s="37">
         <v>1</v>
       </c>
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
       <c r="E10" s="35">
         <v>3</v>
       </c>
-      <c r="F10" s="127" t="s">
+      <c r="F10" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="124"/>
       <c r="I10" s="101" t="s">
         <v>55</v>
       </c>
@@ -16316,19 +16316,19 @@
       <c r="A11" s="37">
         <v>2</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="35">
         <v>4</v>
       </c>
-      <c r="F11" s="127" t="s">
+      <c r="F11" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
       <c r="I11" s="101" t="s">
         <v>55</v>
       </c>
@@ -16337,83 +16337,81 @@
       <c r="A12" s="38">
         <v>3</v>
       </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="101" t="s">
-        <v>55</v>
-      </c>
+      <c r="F12" s="125"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="101"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="37">
         <v>4</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="37">
         <v>5</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="38">
         <v>6</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="37">
         <v>7</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
       <c r="E17" s="45">
         <f>SUM(E10:E16)</f>
         <v>7</v>
       </c>
-      <c r="F17" s="120"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
       <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -16433,90 +16431,90 @@
       <c r="A19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="135"/>
-      <c r="D19" s="140" t="s">
+      <c r="C19" s="109"/>
+      <c r="D19" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="142"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="39">
         <v>1</v>
       </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="145"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="40">
         <v>2</v>
       </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="145"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="41">
         <v>3</v>
       </c>
-      <c r="B22" s="136"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="134"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:I20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:I21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:I22"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -16525,7 +16523,8 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17118,17 +17117,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -17177,46 +17176,46 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="110"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="136"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="113"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="139"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="145"/>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18" t="s">
@@ -17235,19 +17234,19 @@
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="114" t="s">
+      <c r="C9" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="116"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="142"/>
       <c r="F9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="114" t="s">
+      <c r="G9" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="115"/>
-      <c r="I9" s="116"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="142"/>
       <c r="J9" s="34" t="s">
         <v>9</v>
       </c>
@@ -17256,19 +17255,19 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
       <c r="F10" s="35">
         <v>1</v>
       </c>
-      <c r="G10" s="127" t="s">
+      <c r="G10" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="124"/>
-      <c r="I10" s="125"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="124"/>
       <c r="J10" s="101" t="s">
         <v>55</v>
       </c>
@@ -17277,19 +17276,19 @@
       <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
       <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="127" t="s">
+      <c r="G11" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="124"/>
-      <c r="I11" s="125"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="124"/>
       <c r="J11" s="101" t="s">
         <v>55</v>
       </c>
@@ -17298,19 +17297,19 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
       <c r="F12" s="35">
         <v>3</v>
       </c>
-      <c r="G12" s="127" t="s">
+      <c r="G12" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="124"/>
-      <c r="I12" s="125"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="124"/>
       <c r="J12" s="101" t="s">
         <v>55</v>
       </c>
@@ -17319,68 +17318,68 @@
       <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="125"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="124"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="125"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="124"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="38">
         <v>6</v>
       </c>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="125"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="124"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="125"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="124"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="131"/>
       <c r="F17" s="45">
         <f>SUM(F10:F16)</f>
         <v>6</v>
       </c>
-      <c r="G17" s="120"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="122"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="46"/>
     </row>
     <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
@@ -17400,57 +17399,57 @@
       <c r="B19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="135" t="s">
+      <c r="C19" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="135"/>
-      <c r="E19" s="140" t="s">
+      <c r="D19" s="109"/>
+      <c r="E19" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="142"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="116"/>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="39">
         <v>1</v>
       </c>
-      <c r="C20" s="138"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="145"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="119"/>
     </row>
     <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="40">
         <v>2</v>
       </c>
-      <c r="C21" s="138"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="145"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="119"/>
     </row>
     <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="41">
         <v>3</v>
       </c>
-      <c r="C22" s="136"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="134"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="108"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="43" t="s">
@@ -17470,6 +17469,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C22:D22"/>
@@ -17478,28 +17499,6 @@
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -17525,17 +17524,17 @@
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
@@ -17587,13 +17586,13 @@
       <c r="B5" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="110"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="136"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="16" t="s">
@@ -17602,13 +17601,13 @@
       <c r="B6" s="147">
         <v>43665</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="113"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="17" t="s">
@@ -17617,13 +17616,13 @@
       <c r="B7" s="148">
         <v>43665</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="145"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="18" t="s">
@@ -17642,19 +17641,19 @@
       <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142"/>
       <c r="E9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="114" t="s">
+      <c r="F9" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="116"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
       <c r="I9" s="34" t="s">
         <v>9</v>
       </c>
@@ -17663,19 +17662,19 @@
       <c r="A10" s="37">
         <v>1</v>
       </c>
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
       <c r="E10" s="35">
         <v>3</v>
       </c>
-      <c r="F10" s="127" t="s">
+      <c r="F10" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="124"/>
       <c r="I10" s="101" t="s">
         <v>55</v>
       </c>
@@ -17684,19 +17683,19 @@
       <c r="A11" s="37">
         <v>2</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="35">
         <v>2</v>
       </c>
-      <c r="F11" s="127" t="s">
+      <c r="F11" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
       <c r="I11" s="101" t="s">
         <v>55</v>
       </c>
@@ -17705,81 +17704,81 @@
       <c r="A12" s="38">
         <v>3</v>
       </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
       <c r="I12" s="101"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="37">
         <v>4</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="37">
         <v>5</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="38">
         <v>6</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="37">
         <v>7</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
       <c r="E17" s="45">
         <f>SUM(E10:E16)</f>
         <v>5</v>
       </c>
-      <c r="F17" s="120"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
       <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:15" ht="16.2">
@@ -17799,66 +17798,90 @@
       <c r="A19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="135"/>
-      <c r="D19" s="140" t="s">
+      <c r="C19" s="109"/>
+      <c r="D19" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="142"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="39">
         <v>1</v>
       </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="145"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="40">
         <v>2</v>
       </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="145"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
     </row>
     <row r="22" spans="1:15" ht="16.2" thickBot="1">
       <c r="A22" s="41">
         <v>3</v>
       </c>
-      <c r="B22" s="136"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="133"/>
-      <c r="L22" s="133"/>
-      <c r="M22" s="133"/>
-      <c r="N22" s="133"/>
-      <c r="O22" s="134"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
     <mergeCell ref="J22:O22"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:I20"/>
@@ -17866,30 +17889,6 @@
     <mergeCell ref="D21:I21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:I22"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -17914,17 +17913,17 @@
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
@@ -17973,16 +17972,16 @@
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="110"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="136"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="16" t="s">
@@ -17991,13 +17990,13 @@
       <c r="B6" s="147">
         <v>43666</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="113"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="17" t="s">
@@ -18006,13 +18005,13 @@
       <c r="B7" s="148">
         <v>43666</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="145"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="18" t="s">
@@ -18031,19 +18030,19 @@
       <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142"/>
       <c r="E9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="114" t="s">
+      <c r="F9" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="116"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
       <c r="I9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18052,19 +18051,19 @@
       <c r="A10" s="37">
         <v>1</v>
       </c>
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
       <c r="E10" s="35">
         <v>3</v>
       </c>
-      <c r="F10" s="127" t="s">
+      <c r="F10" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="124"/>
       <c r="I10" s="101" t="s">
         <v>55</v>
       </c>
@@ -18073,19 +18072,19 @@
       <c r="A11" s="37">
         <v>2</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="35">
         <v>3</v>
       </c>
-      <c r="F11" s="127" t="s">
+      <c r="F11" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
       <c r="I11" s="101" t="s">
         <v>55</v>
       </c>
@@ -18094,81 +18093,81 @@
       <c r="A12" s="38">
         <v>3</v>
       </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
       <c r="I12" s="101"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="37">
         <v>4</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="37">
         <v>5</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="38">
         <v>6</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="37">
         <v>7</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
       <c r="E17" s="45">
         <f>SUM(E10:E16)</f>
         <v>6</v>
       </c>
-      <c r="F17" s="120"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
       <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -18188,57 +18187,439 @@
       <c r="A19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="135"/>
-      <c r="D19" s="140" t="s">
+      <c r="C19" s="109"/>
+      <c r="D19" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="142"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="39">
         <v>1</v>
       </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="145"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="40">
         <v>2</v>
       </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="145"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="41">
         <v>3</v>
       </c>
-      <c r="B22" s="136"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="134"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="108"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="132" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="146" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="136"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="147">
+        <v>43667</v>
+      </c>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="148">
+        <v>43667</v>
+      </c>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="145"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
+      <c r="A8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="24">
+      <c r="A9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="37">
+        <v>1</v>
+      </c>
+      <c r="B10" s="120" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="35">
+        <v>2</v>
+      </c>
+      <c r="F10" s="125" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="123"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="37">
+        <v>2</v>
+      </c>
+      <c r="B11" s="120" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="35">
+        <v>4</v>
+      </c>
+      <c r="F11" s="125" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="38">
+        <v>3</v>
+      </c>
+      <c r="B12" s="120"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="101"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="37">
+        <v>4</v>
+      </c>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="37">
+        <v>5</v>
+      </c>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="38">
+        <v>6</v>
+      </c>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="37">
+        <v>7</v>
+      </c>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="129" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="45">
+        <f>SUM(E10:E16)</f>
+        <v>6</v>
+      </c>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="46"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.2">
+      <c r="A18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="109" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="109"/>
+      <c r="D19" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="39">
+        <v>1</v>
+      </c>
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="40">
+        <v>2</v>
+      </c>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A22" s="41">
+        <v>3</v>
+      </c>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -18285,28 +18666,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:H11"/>
+      <selection activeCell="F10" sqref="F10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
@@ -18356,45 +18737,45 @@
         <v>1</v>
       </c>
       <c r="B5" s="146" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="110"/>
+        <v>67</v>
+      </c>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="136"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="147">
-        <v>43667</v>
-      </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="113"/>
+        <v>43668</v>
+      </c>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="148">
-        <v>43667</v>
-      </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
+        <v>43668</v>
+      </c>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="145"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="18" t="s">
@@ -18413,19 +18794,19 @@
       <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142"/>
       <c r="E9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="114" t="s">
+      <c r="F9" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="116"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
       <c r="I9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18434,19 +18815,19 @@
       <c r="A10" s="37">
         <v>1</v>
       </c>
-      <c r="B10" s="131" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
+      <c r="B10" s="120" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
       <c r="E10" s="35">
         <v>2</v>
       </c>
-      <c r="F10" s="127" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
+      <c r="F10" s="125" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="123"/>
+      <c r="H10" s="124"/>
       <c r="I10" s="101" t="s">
         <v>55</v>
       </c>
@@ -18455,19 +18836,19 @@
       <c r="A11" s="37">
         <v>2</v>
       </c>
-      <c r="B11" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
+      <c r="B11" s="120" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="35">
         <v>4</v>
       </c>
-      <c r="F11" s="127" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
+      <c r="F11" s="125" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
       <c r="I11" s="101" t="s">
         <v>55</v>
       </c>
@@ -18476,81 +18857,83 @@
       <c r="A12" s="38">
         <v>3</v>
       </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="101"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="101" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="37">
         <v>4</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="37">
         <v>5</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="38">
         <v>6</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="37">
         <v>7</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
       <c r="E17" s="45">
         <f>SUM(E10:E16)</f>
         <v>6</v>
       </c>
-      <c r="F17" s="120"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
       <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -18570,57 +18953,57 @@
       <c r="A19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="135"/>
-      <c r="D19" s="140" t="s">
+      <c r="C19" s="109"/>
+      <c r="D19" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="142"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="39">
         <v>1</v>
       </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="145"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="40">
         <v>2</v>
       </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="145"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="41">
         <v>3</v>
       </c>
-      <c r="B22" s="136"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="134"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -18667,28 +19050,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:H10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
@@ -18738,45 +19121,45 @@
         <v>1</v>
       </c>
       <c r="B5" s="146" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="110"/>
+        <v>72</v>
+      </c>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="136"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="147">
-        <v>43668</v>
-      </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="113"/>
+        <v>43669</v>
+      </c>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="148">
-        <v>43668</v>
-      </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
+        <v>43669</v>
+      </c>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="145"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="18" t="s">
@@ -18795,19 +19178,19 @@
       <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142"/>
       <c r="E9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="114" t="s">
+      <c r="F9" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="116"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
       <c r="I9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18816,19 +19199,19 @@
       <c r="A10" s="37">
         <v>1</v>
       </c>
-      <c r="B10" s="131" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
+      <c r="B10" s="120" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
       <c r="E10" s="35">
-        <v>2</v>
-      </c>
-      <c r="F10" s="127" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
+        <v>3</v>
+      </c>
+      <c r="F10" s="125" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="123"/>
+      <c r="H10" s="124"/>
       <c r="I10" s="101" t="s">
         <v>55</v>
       </c>
@@ -18837,19 +19220,19 @@
       <c r="A11" s="37">
         <v>2</v>
       </c>
-      <c r="B11" s="131" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
+      <c r="B11" s="120" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="35">
         <v>4</v>
       </c>
-      <c r="F11" s="127" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
+      <c r="F11" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
       <c r="I11" s="101" t="s">
         <v>55</v>
       </c>
@@ -18858,83 +19241,81 @@
       <c r="A12" s="38">
         <v>3</v>
       </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="101" t="s">
-        <v>55</v>
-      </c>
+      <c r="F12" s="125"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="101"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="37">
         <v>4</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="37">
         <v>5</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="38">
         <v>6</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="37">
         <v>7</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
       <c r="E17" s="45">
         <f>SUM(E10:E16)</f>
-        <v>6</v>
-      </c>
-      <c r="F17" s="120"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
+        <v>7</v>
+      </c>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
       <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -18954,57 +19335,57 @@
       <c r="A19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="135"/>
-      <c r="D19" s="140" t="s">
+      <c r="C19" s="109"/>
+      <c r="D19" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="142"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="39">
         <v>1</v>
       </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="145"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="40">
         <v>2</v>
       </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="145"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="41">
         <v>3</v>
       </c>
-      <c r="B22" s="136"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="134"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -19049,386 +19430,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="106" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-    </row>
-    <row r="2" spans="1:9" ht="21.6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.2">
-      <c r="A4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="146" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="110"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="147">
-        <v>43669</v>
-      </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="113"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="148">
-        <v>43669</v>
-      </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.2">
-      <c r="A8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" ht="24">
-      <c r="A9" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="114" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="37">
-        <v>1</v>
-      </c>
-      <c r="B10" s="131" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="35">
-        <v>3</v>
-      </c>
-      <c r="F10" s="127" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="37">
-        <v>2</v>
-      </c>
-      <c r="B11" s="131" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="35">
-        <v>4</v>
-      </c>
-      <c r="F11" s="127" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="38">
-        <v>3</v>
-      </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="101"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="37">
-        <v>4</v>
-      </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="36"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="37">
-        <v>5</v>
-      </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="36"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="38">
-        <v>6</v>
-      </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="37">
-        <v>7</v>
-      </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="36"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="128" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="45">
-        <f>SUM(E10:E16)</f>
-        <v>7</v>
-      </c>
-      <c r="F17" s="120"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="46"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.2">
-      <c r="A18" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="135" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="135"/>
-      <c r="D19" s="140" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="142"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="39">
-        <v>1</v>
-      </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="145"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="40">
-        <v>2</v>
-      </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="145"/>
-    </row>
-    <row r="22" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A22" s="41">
-        <v>3</v>
-      </c>
-      <c r="B22" s="136"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="134"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:I22"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/个人日报/个人日报-樊阳.xlsx
+++ b/个人日报/个人日报-樊阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="72" windowWidth="14952" windowHeight="7992" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="72" windowWidth="14952" windowHeight="7992" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="2019-7-22" sheetId="10" r:id="rId8"/>
     <sheet name="2019-7-23" sheetId="11" r:id="rId9"/>
     <sheet name="2019-7-24" sheetId="12" r:id="rId10"/>
+    <sheet name="2019-7-25" sheetId="13" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="89">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -450,6 +451,34 @@
   </si>
   <si>
     <t>编程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备项目答辩工作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备个人项目ppt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备团队项目ppt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成项目设计和报告</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备资料，做ppt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备ppt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成表格</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1864,96 +1893,6 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2003,6 +1942,96 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -8499,6 +8528,79 @@
         </xdr:spPr>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8069580" y="76200"/>
+          <a:ext cx="1830705" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -16150,24 +16252,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
@@ -16219,13 +16321,13 @@
       <c r="B5" s="146" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="136"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="110"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="16" t="s">
@@ -16234,13 +16336,13 @@
       <c r="B6" s="147">
         <v>43671</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="139"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="17" t="s">
@@ -16249,13 +16351,13 @@
       <c r="B7" s="148">
         <v>43671</v>
       </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="145"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="18" t="s">
@@ -16274,19 +16376,19 @@
       <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="142"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="116"/>
       <c r="E9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="140" t="s">
+      <c r="F9" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="141"/>
-      <c r="H9" s="142"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="116"/>
       <c r="I9" s="34" t="s">
         <v>9</v>
       </c>
@@ -16295,19 +16397,19 @@
       <c r="A10" s="37">
         <v>1</v>
       </c>
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
       <c r="E10" s="35">
         <v>3</v>
       </c>
-      <c r="F10" s="125" t="s">
+      <c r="F10" s="127" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="123"/>
-      <c r="H10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
       <c r="I10" s="101" t="s">
         <v>55</v>
       </c>
@@ -16316,19 +16418,19 @@
       <c r="A11" s="37">
         <v>2</v>
       </c>
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
       <c r="E11" s="35">
         <v>4</v>
       </c>
-      <c r="F11" s="125" t="s">
+      <c r="F11" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="123"/>
-      <c r="H11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
       <c r="I11" s="101" t="s">
         <v>55</v>
       </c>
@@ -16337,81 +16439,81 @@
       <c r="A12" s="38">
         <v>3</v>
       </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="124"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
       <c r="I12" s="101"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="37">
         <v>4</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="37">
         <v>5</v>
       </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="38">
         <v>6</v>
       </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="37">
         <v>7</v>
       </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="45">
         <f>SUM(E10:E16)</f>
         <v>7</v>
       </c>
-      <c r="F17" s="126"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
       <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -16431,57 +16533,2584 @@
       <c r="A19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="114" t="s">
+      <c r="C19" s="135"/>
+      <c r="D19" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="116"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="142"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="39">
         <v>1</v>
       </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="145"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="40">
         <v>2</v>
       </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="145"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="41">
         <v>3</v>
       </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="108"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="134"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="146" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="110"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="147">
+        <v>43671</v>
+      </c>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="148">
+        <v>43671</v>
+      </c>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
+      <c r="A8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="24">
+      <c r="A9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="115"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="115"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="37">
+        <v>1</v>
+      </c>
+      <c r="B10" s="131" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="35">
+        <v>2</v>
+      </c>
+      <c r="F10" s="127" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="37">
+        <v>2</v>
+      </c>
+      <c r="B11" s="131" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="35">
+        <v>2</v>
+      </c>
+      <c r="F11" s="127" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="38">
+        <v>3</v>
+      </c>
+      <c r="B12" s="131" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="35">
+        <v>3</v>
+      </c>
+      <c r="F12" s="127" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="37">
+        <v>4</v>
+      </c>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="37">
+        <v>5</v>
+      </c>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="38">
+        <v>6</v>
+      </c>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="37">
+        <v>7</v>
+      </c>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="45">
+        <f>SUM(E10:E16)</f>
+        <v>7</v>
+      </c>
+      <c r="F17" s="120"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="46"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.2">
+      <c r="A18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="135" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="135"/>
+      <c r="D19" s="140" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="142"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="39">
+        <v>1</v>
+      </c>
+      <c r="B20" s="138"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="145"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="40">
+        <v>2</v>
+      </c>
+      <c r="B21" s="138"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="145"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A22" s="41">
+        <v>3</v>
+      </c>
+      <c r="B22" s="136"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="134"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E111"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.59765625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="58" customWidth="1"/>
+    <col min="3" max="3" width="46.19921875" style="58" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="58" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.2">
+      <c r="A1" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.95" customHeight="1">
+      <c r="A2" s="59"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6">
+      <c r="A3" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="64" customFormat="1" ht="15.6">
+      <c r="A4" s="61">
+        <v>1</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="63">
+        <v>40142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="64" customFormat="1">
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="63"/>
+    </row>
+    <row r="6" spans="1:5" s="64" customFormat="1" ht="15.6">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+    </row>
+    <row r="7" spans="1:5" s="64" customFormat="1" ht="15.6">
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+    </row>
+    <row r="8" spans="1:5" s="64" customFormat="1">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="63"/>
+    </row>
+    <row r="9" spans="1:5" s="64" customFormat="1" ht="15.6">
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+    </row>
+    <row r="10" spans="1:5" s="64" customFormat="1" ht="15.6">
+      <c r="A10" s="61"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+    </row>
+    <row r="11" spans="1:5" s="64" customFormat="1">
+      <c r="A11" s="61"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="63"/>
+    </row>
+    <row r="12" spans="1:5" s="64" customFormat="1" ht="15.6">
+      <c r="A12" s="61"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+    </row>
+    <row r="13" spans="1:5" s="64" customFormat="1">
+      <c r="A13" s="61"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="63"/>
+    </row>
+    <row r="14" spans="1:5" s="64" customFormat="1" ht="15.6">
+      <c r="A14" s="61"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+    </row>
+    <row r="15" spans="1:5" s="64" customFormat="1">
+      <c r="A15" s="61"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="63"/>
+    </row>
+    <row r="16" spans="1:5" s="64" customFormat="1">
+      <c r="A16" s="61"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="63"/>
+    </row>
+    <row r="17" spans="1:4" s="64" customFormat="1">
+      <c r="A17" s="61"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="63"/>
+    </row>
+    <row r="18" spans="1:4" s="64" customFormat="1">
+      <c r="A18" s="61"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="63"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.6">
+      <c r="A19" s="61"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="63"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.6">
+      <c r="A20" s="61"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="63"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.6">
+      <c r="A21" s="61"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="63"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="70"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="70"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="70"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="70"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="70"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="70"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="70"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="70"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="70"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="70"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="70"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="70"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="70"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="70"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="70"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="70"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="70"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I56"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="9.19921875" style="99" customWidth="1"/>
+    <col min="2" max="4" width="9.59765625" style="99" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="99" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" style="99" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="99" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" style="99" customWidth="1"/>
+    <col min="9" max="16384" width="8" style="99"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="72" customFormat="1" ht="22.8">
+      <c r="A1" s="71"/>
+    </row>
+    <row r="2" spans="1:9" s="72" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A2" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="75" customFormat="1" ht="22.8">
+      <c r="A3" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+    </row>
+    <row r="4" spans="1:9" s="72" customFormat="1" ht="17.399999999999999">
+      <c r="A4" s="47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="72" customFormat="1" ht="18">
+      <c r="A5" s="76"/>
+    </row>
+    <row r="6" spans="1:9" s="72" customFormat="1" ht="18">
+      <c r="A6" s="76"/>
+    </row>
+    <row r="7" spans="1:9" s="72" customFormat="1" ht="18">
+      <c r="A7" s="76"/>
+    </row>
+    <row r="8" spans="1:9" s="72" customFormat="1" ht="18">
+      <c r="A8" s="76"/>
+    </row>
+    <row r="9" spans="1:9" s="72" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A9" s="76"/>
+    </row>
+    <row r="10" spans="1:9" s="72" customFormat="1" ht="18">
+      <c r="A10" s="76"/>
+    </row>
+    <row r="11" spans="1:9" s="72" customFormat="1" ht="18">
+      <c r="A11" s="76"/>
+    </row>
+    <row r="12" spans="1:9" s="72" customFormat="1" ht="18">
+      <c r="A12" s="76"/>
+    </row>
+    <row r="13" spans="1:9" s="72" customFormat="1" ht="18">
+      <c r="A13" s="76"/>
+    </row>
+    <row r="14" spans="1:9" s="72" customFormat="1" ht="18">
+      <c r="A14" s="76"/>
+    </row>
+    <row r="15" spans="1:9" s="72" customFormat="1" ht="18">
+      <c r="A15" s="77"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+    </row>
+    <row r="16" spans="1:9" s="79" customFormat="1" ht="45">
+      <c r="A16" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+    </row>
+    <row r="17" spans="1:8" s="79" customFormat="1" ht="16.2">
+      <c r="A17" s="80"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+    </row>
+    <row r="18" spans="1:8" s="72" customFormat="1" ht="53.4">
+      <c r="A18" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+    </row>
+    <row r="19" spans="1:8" s="72" customFormat="1" ht="18">
+      <c r="A19" s="77"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+    </row>
+    <row r="20" spans="1:8" s="72" customFormat="1" ht="46.2">
+      <c r="A20" s="84"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+    </row>
+    <row r="21" spans="1:8" s="72" customFormat="1" ht="18">
+      <c r="A21" s="50"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+    </row>
+    <row r="22" spans="1:8" s="72" customFormat="1" ht="22.2" customHeight="1">
+      <c r="A22" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+    </row>
+    <row r="23" spans="1:8" s="72" customFormat="1" ht="18">
+      <c r="A23" s="77"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+    </row>
+    <row r="24" spans="1:8" s="72" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="77"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+    </row>
+    <row r="25" spans="1:8" s="72" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="77"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+    </row>
+    <row r="26" spans="1:8" s="72" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="77"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+    </row>
+    <row r="27" spans="1:8" s="72" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="77"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+    </row>
+    <row r="28" spans="1:8" s="72" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="77"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+    </row>
+    <row r="29" spans="1:8" s="89" customFormat="1" ht="22.2" customHeight="1">
+      <c r="A29" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+    </row>
+    <row r="30" spans="1:8" s="89" customFormat="1">
+      <c r="A30" s="90"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+    </row>
+    <row r="31" spans="1:8" s="89" customFormat="1">
+      <c r="A31" s="90"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+    </row>
+    <row r="32" spans="1:8" s="89" customFormat="1">
+      <c r="A32" s="90"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
+    </row>
+    <row r="33" spans="1:8" s="95" customFormat="1" ht="30" customHeight="1">
+      <c r="A33" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="93"/>
+      <c r="C33" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="93"/>
+      <c r="E33" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="93"/>
+      <c r="G33" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="93"/>
+    </row>
+    <row r="34" spans="1:8" s="95" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A34" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+    </row>
+    <row r="35" spans="1:8" s="72" customFormat="1" ht="18">
+      <c r="A35" s="77"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+    </row>
+    <row r="36" spans="1:8" s="72" customFormat="1" ht="19.2">
+      <c r="A36" s="96"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+    </row>
+    <row r="37" spans="1:8" s="72" customFormat="1" ht="18.600000000000001">
+      <c r="A37" s="97"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+    </row>
+    <row r="38" spans="1:8" s="72" customFormat="1"/>
+    <row r="55" spans="1:1">
+      <c r="A55" s="98"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="100"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="110"/>
+    </row>
+    <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="111" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="113"/>
+    </row>
+    <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="117" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
+    </row>
+    <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="114" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="115"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="115"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="37">
+        <v>1</v>
+      </c>
+      <c r="C10" s="131" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="35">
+        <v>1</v>
+      </c>
+      <c r="G10" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="124"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="37">
+        <v>2</v>
+      </c>
+      <c r="C11" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="35">
+        <v>2</v>
+      </c>
+      <c r="G11" s="127" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="124"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="38">
+        <v>3</v>
+      </c>
+      <c r="C12" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="35">
+        <v>3</v>
+      </c>
+      <c r="G12" s="127" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="124"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="37">
+        <v>4</v>
+      </c>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="36"/>
+    </row>
+    <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="37">
+        <v>5</v>
+      </c>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="36"/>
+    </row>
+    <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="38">
+        <v>6</v>
+      </c>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="36"/>
+    </row>
+    <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="37">
+        <v>7</v>
+      </c>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="45">
+        <f>SUM(F10:F16)</f>
+        <v>6</v>
+      </c>
+      <c r="G17" s="120"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="46"/>
+    </row>
+    <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="135" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="135"/>
+      <c r="E19" s="140" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="142"/>
+    </row>
+    <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="39">
+        <v>1</v>
+      </c>
+      <c r="C20" s="138"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="145"/>
+    </row>
+    <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="40">
+        <v>2</v>
+      </c>
+      <c r="C21" s="138"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="145"/>
+    </row>
+    <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="41">
+        <v>3</v>
+      </c>
+      <c r="C22" s="136"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="134"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.6">
+      <c r="B24" s="43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.6">
+      <c r="B25" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.6">
+      <c r="B26" s="43"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.6">
+      <c r="B27" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="146" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="110"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="147">
+        <v>43665</v>
+      </c>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="148">
+        <v>43665</v>
+      </c>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
+      <c r="A8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="24">
+      <c r="A9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="115"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="115"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="37">
+        <v>1</v>
+      </c>
+      <c r="B10" s="131" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="35">
+        <v>3</v>
+      </c>
+      <c r="F10" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="37">
+        <v>2</v>
+      </c>
+      <c r="B11" s="131" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="35">
+        <v>2</v>
+      </c>
+      <c r="F11" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="38">
+        <v>3</v>
+      </c>
+      <c r="B12" s="131"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="101"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="37">
+        <v>4</v>
+      </c>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="37">
+        <v>5</v>
+      </c>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="38">
+        <v>6</v>
+      </c>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="37">
+        <v>7</v>
+      </c>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="45">
+        <f>SUM(E10:E16)</f>
+        <v>5</v>
+      </c>
+      <c r="F17" s="120"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="46"/>
+    </row>
+    <row r="18" spans="1:15" ht="16.2">
+      <c r="A18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="135" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="135"/>
+      <c r="D19" s="140" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="142"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="39">
+        <v>1</v>
+      </c>
+      <c r="B20" s="138"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="145"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="40">
+        <v>2</v>
+      </c>
+      <c r="B21" s="138"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="145"/>
+    </row>
+    <row r="22" spans="1:15" ht="16.2" thickBot="1">
+      <c r="A22" s="41">
+        <v>3</v>
+      </c>
+      <c r="B22" s="136"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="133"/>
+      <c r="M22" s="133"/>
+      <c r="N22" s="133"/>
+      <c r="O22" s="134"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="110"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="147">
+        <v>43666</v>
+      </c>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="148">
+        <v>43666</v>
+      </c>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
+      <c r="A8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="24">
+      <c r="A9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="115"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="115"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="37">
+        <v>1</v>
+      </c>
+      <c r="B10" s="131" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="35">
+        <v>3</v>
+      </c>
+      <c r="F10" s="127" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="37">
+        <v>2</v>
+      </c>
+      <c r="B11" s="131" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="35">
+        <v>3</v>
+      </c>
+      <c r="F11" s="127" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="38">
+        <v>3</v>
+      </c>
+      <c r="B12" s="131"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="101"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="37">
+        <v>4</v>
+      </c>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="37">
+        <v>5</v>
+      </c>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="38">
+        <v>6</v>
+      </c>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="37">
+        <v>7</v>
+      </c>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="45">
+        <f>SUM(E10:E16)</f>
+        <v>6</v>
+      </c>
+      <c r="F17" s="120"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="46"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.2">
+      <c r="A18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="135" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="135"/>
+      <c r="D19" s="140" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="142"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="39">
+        <v>1</v>
+      </c>
+      <c r="B20" s="138"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="145"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="40">
+        <v>2</v>
+      </c>
+      <c r="B21" s="138"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="145"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A22" s="41">
+        <v>3</v>
+      </c>
+      <c r="B22" s="136"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="134"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="146" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="110"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="147">
+        <v>43667</v>
+      </c>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="148">
+        <v>43667</v>
+      </c>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
+      <c r="A8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="24">
+      <c r="A9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="115"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="115"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="37">
+        <v>1</v>
+      </c>
+      <c r="B10" s="131" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="35">
+        <v>2</v>
+      </c>
+      <c r="F10" s="127" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="37">
+        <v>2</v>
+      </c>
+      <c r="B11" s="131" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="35">
+        <v>4</v>
+      </c>
+      <c r="F11" s="127" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="38">
+        <v>3</v>
+      </c>
+      <c r="B12" s="131"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="101"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="37">
+        <v>4</v>
+      </c>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="37">
+        <v>5</v>
+      </c>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="38">
+        <v>6</v>
+      </c>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="37">
+        <v>7</v>
+      </c>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="45">
+        <f>SUM(E10:E16)</f>
+        <v>6</v>
+      </c>
+      <c r="F17" s="120"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="46"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.2">
+      <c r="A18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="135" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="135"/>
+      <c r="D19" s="140" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="142"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="39">
+        <v>1</v>
+      </c>
+      <c r="B20" s="138"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="145"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="40">
+        <v>2</v>
+      </c>
+      <c r="B21" s="138"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="145"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A22" s="41">
+        <v>3</v>
+      </c>
+      <c r="B22" s="136"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -16528,1013 +19157,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E111"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.59765625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" style="58" customWidth="1"/>
-    <col min="3" max="3" width="46.19921875" style="58" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" style="58" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="58"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="28.2">
-      <c r="A1" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-    </row>
-    <row r="2" spans="1:5" ht="19.95" customHeight="1">
-      <c r="A2" s="59"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.6">
-      <c r="A3" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="64" customFormat="1" ht="15.6">
-      <c r="A4" s="61">
-        <v>1</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="63">
-        <v>40142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="64" customFormat="1">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="63"/>
-    </row>
-    <row r="6" spans="1:5" s="64" customFormat="1" ht="15.6">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
-    </row>
-    <row r="7" spans="1:5" s="64" customFormat="1" ht="15.6">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
-    </row>
-    <row r="8" spans="1:5" s="64" customFormat="1">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="63"/>
-    </row>
-    <row r="9" spans="1:5" s="64" customFormat="1" ht="15.6">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-    </row>
-    <row r="10" spans="1:5" s="64" customFormat="1" ht="15.6">
-      <c r="A10" s="61"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-    </row>
-    <row r="11" spans="1:5" s="64" customFormat="1">
-      <c r="A11" s="61"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="63"/>
-    </row>
-    <row r="12" spans="1:5" s="64" customFormat="1" ht="15.6">
-      <c r="A12" s="61"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-    </row>
-    <row r="13" spans="1:5" s="64" customFormat="1">
-      <c r="A13" s="61"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="63"/>
-    </row>
-    <row r="14" spans="1:5" s="64" customFormat="1" ht="15.6">
-      <c r="A14" s="61"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-    </row>
-    <row r="15" spans="1:5" s="64" customFormat="1">
-      <c r="A15" s="61"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="63"/>
-    </row>
-    <row r="16" spans="1:5" s="64" customFormat="1">
-      <c r="A16" s="61"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="63"/>
-    </row>
-    <row r="17" spans="1:4" s="64" customFormat="1">
-      <c r="A17" s="61"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="63"/>
-    </row>
-    <row r="18" spans="1:4" s="64" customFormat="1">
-      <c r="A18" s="61"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="63"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.6">
-      <c r="A19" s="61"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="63"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.6">
-      <c r="A20" s="61"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="63"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.6">
-      <c r="A21" s="61"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="63"/>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="70"/>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="70"/>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="70"/>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="70"/>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="70"/>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="70"/>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="70"/>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="70"/>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="70"/>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="70"/>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="70"/>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="70"/>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="70"/>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="70"/>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="70"/>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="70"/>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="70"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I56"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.6"/>
-  <cols>
-    <col min="1" max="1" width="9.19921875" style="99" customWidth="1"/>
-    <col min="2" max="4" width="9.59765625" style="99" customWidth="1"/>
-    <col min="5" max="5" width="13.09765625" style="99" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" style="99" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="99" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" style="99" customWidth="1"/>
-    <col min="9" max="16384" width="8" style="99"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="72" customFormat="1" ht="22.8">
-      <c r="A1" s="71"/>
-    </row>
-    <row r="2" spans="1:9" s="72" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A2" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="75" customFormat="1" ht="22.8">
-      <c r="A3" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-    </row>
-    <row r="4" spans="1:9" s="72" customFormat="1" ht="17.399999999999999">
-      <c r="A4" s="47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="72" customFormat="1" ht="18">
-      <c r="A5" s="76"/>
-    </row>
-    <row r="6" spans="1:9" s="72" customFormat="1" ht="18">
-      <c r="A6" s="76"/>
-    </row>
-    <row r="7" spans="1:9" s="72" customFormat="1" ht="18">
-      <c r="A7" s="76"/>
-    </row>
-    <row r="8" spans="1:9" s="72" customFormat="1" ht="18">
-      <c r="A8" s="76"/>
-    </row>
-    <row r="9" spans="1:9" s="72" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A9" s="76"/>
-    </row>
-    <row r="10" spans="1:9" s="72" customFormat="1" ht="18">
-      <c r="A10" s="76"/>
-    </row>
-    <row r="11" spans="1:9" s="72" customFormat="1" ht="18">
-      <c r="A11" s="76"/>
-    </row>
-    <row r="12" spans="1:9" s="72" customFormat="1" ht="18">
-      <c r="A12" s="76"/>
-    </row>
-    <row r="13" spans="1:9" s="72" customFormat="1" ht="18">
-      <c r="A13" s="76"/>
-    </row>
-    <row r="14" spans="1:9" s="72" customFormat="1" ht="18">
-      <c r="A14" s="76"/>
-    </row>
-    <row r="15" spans="1:9" s="72" customFormat="1" ht="18">
-      <c r="A15" s="77"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-    </row>
-    <row r="16" spans="1:9" s="79" customFormat="1" ht="45">
-      <c r="A16" s="104" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-    </row>
-    <row r="17" spans="1:8" s="79" customFormat="1" ht="16.2">
-      <c r="A17" s="80"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-    </row>
-    <row r="18" spans="1:8" s="72" customFormat="1" ht="53.4">
-      <c r="A18" s="83" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-    </row>
-    <row r="19" spans="1:8" s="72" customFormat="1" ht="18">
-      <c r="A19" s="77"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-    </row>
-    <row r="20" spans="1:8" s="72" customFormat="1" ht="46.2">
-      <c r="A20" s="84"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-    </row>
-    <row r="21" spans="1:8" s="72" customFormat="1" ht="18">
-      <c r="A21" s="50"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-    </row>
-    <row r="22" spans="1:8" s="72" customFormat="1" ht="22.2" customHeight="1">
-      <c r="A22" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-    </row>
-    <row r="23" spans="1:8" s="72" customFormat="1" ht="18">
-      <c r="A23" s="77"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-    </row>
-    <row r="24" spans="1:8" s="72" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="77"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-    </row>
-    <row r="25" spans="1:8" s="72" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="77"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-    </row>
-    <row r="26" spans="1:8" s="72" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="77"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-    </row>
-    <row r="27" spans="1:8" s="72" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="77"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-    </row>
-    <row r="28" spans="1:8" s="72" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="77"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-    </row>
-    <row r="29" spans="1:8" s="89" customFormat="1" ht="22.2" customHeight="1">
-      <c r="A29" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-    </row>
-    <row r="30" spans="1:8" s="89" customFormat="1">
-      <c r="A30" s="90"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
-    </row>
-    <row r="31" spans="1:8" s="89" customFormat="1">
-      <c r="A31" s="90"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
-    </row>
-    <row r="32" spans="1:8" s="89" customFormat="1">
-      <c r="A32" s="90"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="91"/>
-    </row>
-    <row r="33" spans="1:8" s="95" customFormat="1" ht="30" customHeight="1">
-      <c r="A33" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="93"/>
-      <c r="C33" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="93"/>
-      <c r="E33" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="93"/>
-      <c r="G33" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" s="93"/>
-    </row>
-    <row r="34" spans="1:8" s="95" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A34" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-    </row>
-    <row r="35" spans="1:8" s="72" customFormat="1" ht="18">
-      <c r="A35" s="77"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-    </row>
-    <row r="36" spans="1:8" s="72" customFormat="1" ht="19.2">
-      <c r="A36" s="96"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-    </row>
-    <row r="37" spans="1:8" s="72" customFormat="1" ht="18.600000000000001">
-      <c r="A37" s="97"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-    </row>
-    <row r="38" spans="1:8" s="72" customFormat="1"/>
-    <row r="55" spans="1:1">
-      <c r="A55" s="98"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="100"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="132" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-    </row>
-    <row r="2" spans="2:10" ht="7.5" customHeight="1">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="134" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="136"/>
-    </row>
-    <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="137" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="139"/>
-    </row>
-    <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="143" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="145"/>
-    </row>
-    <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="140" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="141"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="140" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="141"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="37">
-        <v>1</v>
-      </c>
-      <c r="C10" s="120" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="35">
-        <v>1</v>
-      </c>
-      <c r="G10" s="125" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="123"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="37">
-        <v>2</v>
-      </c>
-      <c r="C11" s="120" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="35">
-        <v>2</v>
-      </c>
-      <c r="G11" s="125" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="123"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="38">
-        <v>3</v>
-      </c>
-      <c r="C12" s="120" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="35">
-        <v>3</v>
-      </c>
-      <c r="G12" s="125" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="123"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="37">
-        <v>4</v>
-      </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="37">
-        <v>5</v>
-      </c>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="36"/>
-    </row>
-    <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="38">
-        <v>6</v>
-      </c>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="37">
-        <v>7</v>
-      </c>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="129" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="45">
-        <f>SUM(F10:F16)</f>
-        <v>6</v>
-      </c>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="46"/>
-    </row>
-    <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B18" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="109"/>
-      <c r="E19" s="114" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="116"/>
-    </row>
-    <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="39">
-        <v>1</v>
-      </c>
-      <c r="C20" s="112"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="119"/>
-    </row>
-    <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="40">
-        <v>2</v>
-      </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="119"/>
-    </row>
-    <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="41">
-        <v>3</v>
-      </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="108"/>
-    </row>
-    <row r="24" spans="2:10" ht="15.6">
-      <c r="B24" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="15.6">
-      <c r="B25" s="43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="15.6">
-      <c r="B26" s="43"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.6">
-      <c r="B27" s="43"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F10" sqref="F10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
@@ -17584,45 +19228,45 @@
         <v>1</v>
       </c>
       <c r="B5" s="146" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="136"/>
+        <v>67</v>
+      </c>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="110"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="147">
-        <v>43665</v>
-      </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="139"/>
+        <v>43668</v>
+      </c>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="148">
-        <v>43665</v>
-      </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="145"/>
+        <v>43668</v>
+      </c>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="18" t="s">
@@ -17641,19 +19285,19 @@
       <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="142"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="116"/>
       <c r="E9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="140" t="s">
+      <c r="F9" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="141"/>
-      <c r="H9" s="142"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="116"/>
       <c r="I9" s="34" t="s">
         <v>9</v>
       </c>
@@ -17662,19 +19306,19 @@
       <c r="A10" s="37">
         <v>1</v>
       </c>
-      <c r="B10" s="120" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
+      <c r="B10" s="131" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
       <c r="E10" s="35">
-        <v>3</v>
-      </c>
-      <c r="F10" s="125" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="123"/>
-      <c r="H10" s="124"/>
+        <v>2</v>
+      </c>
+      <c r="F10" s="127" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
       <c r="I10" s="101" t="s">
         <v>55</v>
       </c>
@@ -17683,19 +19327,19 @@
       <c r="A11" s="37">
         <v>2</v>
       </c>
-      <c r="B11" s="120" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
+      <c r="B11" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
       <c r="E11" s="35">
-        <v>2</v>
-      </c>
-      <c r="F11" s="125" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="123"/>
-      <c r="H11" s="124"/>
+        <v>4</v>
+      </c>
+      <c r="F11" s="127" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
       <c r="I11" s="101" t="s">
         <v>55</v>
       </c>
@@ -17704,84 +19348,86 @@
       <c r="A12" s="38">
         <v>3</v>
       </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="101"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="101" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="37">
         <v>4</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="37">
         <v>5</v>
       </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="38">
         <v>6</v>
       </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="37">
         <v>7</v>
       </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="129" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="45">
         <f>SUM(E10:E16)</f>
-        <v>5</v>
-      </c>
-      <c r="F17" s="126"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
+        <v>6</v>
+      </c>
+      <c r="F17" s="120"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
       <c r="I17" s="46"/>
     </row>
-    <row r="18" spans="1:15" ht="16.2">
+    <row r="18" spans="1:9" ht="16.2">
       <c r="A18" s="18" t="s">
         <v>5</v>
       </c>
@@ -17794,832 +19440,61 @@
       <c r="H18" s="19"/>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="114" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="116"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="39">
-        <v>1</v>
-      </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="40">
-        <v>2</v>
-      </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
-    </row>
-    <row r="22" spans="1:15" ht="16.2" thickBot="1">
-      <c r="A22" s="41">
-        <v>3</v>
-      </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="107"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="108"/>
-    </row>
-  </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:I22"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="132" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-    </row>
-    <row r="2" spans="1:9" ht="21.6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.2">
-      <c r="A4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="134" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="136"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="147">
-        <v>43666</v>
-      </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="139"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="148">
-        <v>43666</v>
-      </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="145"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.2">
-      <c r="A8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" ht="24">
-      <c r="A9" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="140" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="140" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="141"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="37">
-        <v>1</v>
-      </c>
-      <c r="B10" s="120" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="35">
-        <v>3</v>
-      </c>
-      <c r="F10" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="123"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="37">
-        <v>2</v>
-      </c>
-      <c r="B11" s="120" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="35">
-        <v>3</v>
-      </c>
-      <c r="F11" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="123"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="38">
-        <v>3</v>
-      </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="101"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="37">
-        <v>4</v>
-      </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="36"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="37">
-        <v>5</v>
-      </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="36"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="38">
-        <v>6</v>
-      </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="37">
-        <v>7</v>
-      </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="36"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="45">
-        <f>SUM(E10:E16)</f>
-        <v>6</v>
-      </c>
-      <c r="F17" s="126"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="46"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.2">
-      <c r="A18" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
-    </row>
     <row r="19" spans="1:9">
       <c r="A19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="114" t="s">
+      <c r="C19" s="135"/>
+      <c r="D19" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="116"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="142"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="39">
         <v>1</v>
       </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="145"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="40">
         <v>2</v>
       </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="145"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="41">
         <v>3</v>
       </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="108"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:I22"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="132" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-    </row>
-    <row r="2" spans="1:9" ht="21.6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.2">
-      <c r="A4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="146" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="136"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="147">
-        <v>43667</v>
-      </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="139"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="148">
-        <v>43667</v>
-      </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="145"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.2">
-      <c r="A8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" ht="24">
-      <c r="A9" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="140" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="140" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="141"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="37">
-        <v>1</v>
-      </c>
-      <c r="B10" s="120" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="35">
-        <v>2</v>
-      </c>
-      <c r="F10" s="125" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="123"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="37">
-        <v>2</v>
-      </c>
-      <c r="B11" s="120" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="35">
-        <v>4</v>
-      </c>
-      <c r="F11" s="125" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="123"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="38">
-        <v>3</v>
-      </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="101"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="37">
-        <v>4</v>
-      </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="36"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="37">
-        <v>5</v>
-      </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="36"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="38">
-        <v>6</v>
-      </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="37">
-        <v>7</v>
-      </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="36"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="45">
-        <f>SUM(E10:E16)</f>
-        <v>6</v>
-      </c>
-      <c r="F17" s="126"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="46"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.2">
-      <c r="A18" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="114" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="116"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="39">
-        <v>1</v>
-      </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="40">
-        <v>2</v>
-      </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
-    </row>
-    <row r="22" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A22" s="41">
-        <v>3</v>
-      </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="108"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -18666,28 +19541,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:H10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
@@ -18737,45 +19612,45 @@
         <v>1</v>
       </c>
       <c r="B5" s="146" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="136"/>
+        <v>72</v>
+      </c>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="110"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="147">
-        <v>43668</v>
-      </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="139"/>
+        <v>43669</v>
+      </c>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="148">
-        <v>43668</v>
-      </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="145"/>
+        <v>43669</v>
+      </c>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="18" t="s">
@@ -18794,19 +19669,19 @@
       <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="142"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="116"/>
       <c r="E9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="140" t="s">
+      <c r="F9" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="141"/>
-      <c r="H9" s="142"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="116"/>
       <c r="I9" s="34" t="s">
         <v>9</v>
       </c>
@@ -18815,19 +19690,19 @@
       <c r="A10" s="37">
         <v>1</v>
       </c>
-      <c r="B10" s="120" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
+      <c r="B10" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
       <c r="E10" s="35">
-        <v>2</v>
-      </c>
-      <c r="F10" s="125" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="123"/>
-      <c r="H10" s="124"/>
+        <v>3</v>
+      </c>
+      <c r="F10" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
       <c r="I10" s="101" t="s">
         <v>55</v>
       </c>
@@ -18836,19 +19711,19 @@
       <c r="A11" s="37">
         <v>2</v>
       </c>
-      <c r="B11" s="120" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
+      <c r="B11" s="131" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
       <c r="E11" s="35">
         <v>4</v>
       </c>
-      <c r="F11" s="125" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="123"/>
-      <c r="H11" s="124"/>
+      <c r="F11" s="127" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
       <c r="I11" s="101" t="s">
         <v>55</v>
       </c>
@@ -18857,83 +19732,81 @@
       <c r="A12" s="38">
         <v>3</v>
       </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="101" t="s">
-        <v>55</v>
-      </c>
+      <c r="F12" s="127"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="101"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="37">
         <v>4</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="37">
         <v>5</v>
       </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="38">
         <v>6</v>
       </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="37">
         <v>7</v>
       </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="45">
         <f>SUM(E10:E16)</f>
-        <v>6</v>
-      </c>
-      <c r="F17" s="126"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
+        <v>7</v>
+      </c>
+      <c r="F17" s="120"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
       <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -18953,57 +19826,57 @@
       <c r="A19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="114" t="s">
+      <c r="C19" s="135"/>
+      <c r="D19" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="116"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="142"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="39">
         <v>1</v>
       </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="145"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="40">
         <v>2</v>
       </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="145"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="41">
         <v>3</v>
       </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="108"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -19048,386 +19921,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="132" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-    </row>
-    <row r="2" spans="1:9" ht="21.6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.2">
-      <c r="A4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="146" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="136"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="147">
-        <v>43669</v>
-      </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="139"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="148">
-        <v>43669</v>
-      </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="145"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.2">
-      <c r="A8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" ht="24">
-      <c r="A9" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="140" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="140" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="141"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="37">
-        <v>1</v>
-      </c>
-      <c r="B10" s="120" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="35">
-        <v>3</v>
-      </c>
-      <c r="F10" s="125" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="123"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="37">
-        <v>2</v>
-      </c>
-      <c r="B11" s="120" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="35">
-        <v>4</v>
-      </c>
-      <c r="F11" s="125" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="123"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="38">
-        <v>3</v>
-      </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="101"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="37">
-        <v>4</v>
-      </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="36"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="37">
-        <v>5</v>
-      </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="36"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="38">
-        <v>6</v>
-      </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="37">
-        <v>7</v>
-      </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="36"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="129" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="45">
-        <f>SUM(E10:E16)</f>
-        <v>7</v>
-      </c>
-      <c r="F17" s="126"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="46"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.2">
-      <c r="A18" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="114" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="116"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="39">
-        <v>1</v>
-      </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="40">
-        <v>2</v>
-      </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
-    </row>
-    <row r="22" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A22" s="41">
-        <v>3</v>
-      </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="108"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/个人日报/个人日报-樊阳.xlsx
+++ b/个人日报/个人日报-樊阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="72" windowWidth="14952" windowHeight="7992" activeTab="10"/>
+    <workbookView xWindow="120" yWindow="72" windowWidth="14952" windowHeight="7992" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="2019-7-23" sheetId="11" r:id="rId9"/>
     <sheet name="2019-7-24" sheetId="12" r:id="rId10"/>
     <sheet name="2019-7-25" sheetId="13" r:id="rId11"/>
+    <sheet name="2019-7-26" sheetId="14" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="96">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -479,6 +480,34 @@
   </si>
   <si>
     <t>完成表格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备项目答辩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备项目答辩ppt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作ppt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善需求分析</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>改动需求分析</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成项目报告</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进一步优化项目报告</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1893,6 +1922,96 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1942,96 +2061,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -8534,6 +8563,79 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8069580" y="76200"/>
+          <a:ext cx="1830705" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16259,17 +16361,17 @@
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
@@ -16321,13 +16423,13 @@
       <c r="B5" s="146" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="110"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="136"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="16" t="s">
@@ -16336,13 +16438,13 @@
       <c r="B6" s="147">
         <v>43671</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="113"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="17" t="s">
@@ -16351,13 +16453,13 @@
       <c r="B7" s="148">
         <v>43671</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="145"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="18" t="s">
@@ -16376,19 +16478,19 @@
       <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142"/>
       <c r="E9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="114" t="s">
+      <c r="F9" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="116"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
       <c r="I9" s="34" t="s">
         <v>9</v>
       </c>
@@ -16397,19 +16499,19 @@
       <c r="A10" s="37">
         <v>1</v>
       </c>
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
       <c r="E10" s="35">
         <v>3</v>
       </c>
-      <c r="F10" s="127" t="s">
+      <c r="F10" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="124"/>
       <c r="I10" s="101" t="s">
         <v>55</v>
       </c>
@@ -16418,19 +16520,19 @@
       <c r="A11" s="37">
         <v>2</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="35">
         <v>4</v>
       </c>
-      <c r="F11" s="127" t="s">
+      <c r="F11" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
       <c r="I11" s="101" t="s">
         <v>55</v>
       </c>
@@ -16439,81 +16541,81 @@
       <c r="A12" s="38">
         <v>3</v>
       </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
       <c r="I12" s="101"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="37">
         <v>4</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="37">
         <v>5</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="38">
         <v>6</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="37">
         <v>7</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
       <c r="E17" s="45">
         <f>SUM(E10:E16)</f>
         <v>7</v>
       </c>
-      <c r="F17" s="120"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
       <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -16533,57 +16635,2974 @@
       <c r="A19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="135"/>
-      <c r="D19" s="140" t="s">
+      <c r="C19" s="109"/>
+      <c r="D19" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="142"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="39">
         <v>1</v>
       </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="145"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="40">
         <v>2</v>
       </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="145"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="41">
         <v>3</v>
       </c>
-      <c r="B22" s="136"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="134"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="108"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="132" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="146" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="136"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="147">
+        <v>43671</v>
+      </c>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="148">
+        <v>43671</v>
+      </c>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="145"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
+      <c r="A8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="24">
+      <c r="A9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="37">
+        <v>1</v>
+      </c>
+      <c r="B10" s="120" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="35">
+        <v>2</v>
+      </c>
+      <c r="F10" s="125" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="123"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="37">
+        <v>2</v>
+      </c>
+      <c r="B11" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="35">
+        <v>2</v>
+      </c>
+      <c r="F11" s="125" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="38">
+        <v>3</v>
+      </c>
+      <c r="B12" s="120" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="35">
+        <v>3</v>
+      </c>
+      <c r="F12" s="125" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="37">
+        <v>4</v>
+      </c>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="37">
+        <v>5</v>
+      </c>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="38">
+        <v>6</v>
+      </c>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="37">
+        <v>7</v>
+      </c>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="129" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="45">
+        <f>SUM(E10:E16)</f>
+        <v>7</v>
+      </c>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="46"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.2">
+      <c r="A18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="109" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="109"/>
+      <c r="D19" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="39">
+        <v>1</v>
+      </c>
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="40">
+        <v>2</v>
+      </c>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A22" s="41">
+        <v>3</v>
+      </c>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="108"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="132" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="146" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="136"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="147">
+        <v>43672</v>
+      </c>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="148">
+        <v>43672</v>
+      </c>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="145"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
+      <c r="A8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="24">
+      <c r="A9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="37">
+        <v>1</v>
+      </c>
+      <c r="B10" s="120" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="35">
+        <v>2</v>
+      </c>
+      <c r="F10" s="125" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="123"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="37">
+        <v>2</v>
+      </c>
+      <c r="B11" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="35">
+        <v>2</v>
+      </c>
+      <c r="F11" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="38">
+        <v>3</v>
+      </c>
+      <c r="B12" s="120" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="35">
+        <v>3</v>
+      </c>
+      <c r="F12" s="125" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="37">
+        <v>4</v>
+      </c>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="37">
+        <v>5</v>
+      </c>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="38">
+        <v>6</v>
+      </c>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="37">
+        <v>7</v>
+      </c>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="129" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="45">
+        <f>SUM(E10:E16)</f>
+        <v>7</v>
+      </c>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="46"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.2">
+      <c r="A18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="109" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="109"/>
+      <c r="D19" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="39">
+        <v>1</v>
+      </c>
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="40">
+        <v>2</v>
+      </c>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A22" s="41">
+        <v>3</v>
+      </c>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="108"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E111"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.59765625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="58" customWidth="1"/>
+    <col min="3" max="3" width="46.19921875" style="58" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="58" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.2">
+      <c r="A1" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.95" customHeight="1">
+      <c r="A2" s="59"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6">
+      <c r="A3" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="64" customFormat="1" ht="15.6">
+      <c r="A4" s="61">
+        <v>1</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="63">
+        <v>40142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="64" customFormat="1">
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="63"/>
+    </row>
+    <row r="6" spans="1:5" s="64" customFormat="1" ht="15.6">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+    </row>
+    <row r="7" spans="1:5" s="64" customFormat="1" ht="15.6">
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+    </row>
+    <row r="8" spans="1:5" s="64" customFormat="1">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="63"/>
+    </row>
+    <row r="9" spans="1:5" s="64" customFormat="1" ht="15.6">
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+    </row>
+    <row r="10" spans="1:5" s="64" customFormat="1" ht="15.6">
+      <c r="A10" s="61"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+    </row>
+    <row r="11" spans="1:5" s="64" customFormat="1">
+      <c r="A11" s="61"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="63"/>
+    </row>
+    <row r="12" spans="1:5" s="64" customFormat="1" ht="15.6">
+      <c r="A12" s="61"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+    </row>
+    <row r="13" spans="1:5" s="64" customFormat="1">
+      <c r="A13" s="61"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="63"/>
+    </row>
+    <row r="14" spans="1:5" s="64" customFormat="1" ht="15.6">
+      <c r="A14" s="61"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+    </row>
+    <row r="15" spans="1:5" s="64" customFormat="1">
+      <c r="A15" s="61"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="63"/>
+    </row>
+    <row r="16" spans="1:5" s="64" customFormat="1">
+      <c r="A16" s="61"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="63"/>
+    </row>
+    <row r="17" spans="1:4" s="64" customFormat="1">
+      <c r="A17" s="61"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="63"/>
+    </row>
+    <row r="18" spans="1:4" s="64" customFormat="1">
+      <c r="A18" s="61"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="63"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.6">
+      <c r="A19" s="61"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="63"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.6">
+      <c r="A20" s="61"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="63"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.6">
+      <c r="A21" s="61"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="63"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="70"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="70"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="70"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="70"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="70"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="70"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="70"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="70"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="70"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="70"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="70"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="70"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="70"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="70"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="70"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="70"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="70"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I56"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="9.19921875" style="99" customWidth="1"/>
+    <col min="2" max="4" width="9.59765625" style="99" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="99" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" style="99" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="99" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" style="99" customWidth="1"/>
+    <col min="9" max="16384" width="8" style="99"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="72" customFormat="1" ht="22.8">
+      <c r="A1" s="71"/>
+    </row>
+    <row r="2" spans="1:9" s="72" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A2" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="75" customFormat="1" ht="22.8">
+      <c r="A3" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+    </row>
+    <row r="4" spans="1:9" s="72" customFormat="1" ht="17.399999999999999">
+      <c r="A4" s="47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="72" customFormat="1" ht="18">
+      <c r="A5" s="76"/>
+    </row>
+    <row r="6" spans="1:9" s="72" customFormat="1" ht="18">
+      <c r="A6" s="76"/>
+    </row>
+    <row r="7" spans="1:9" s="72" customFormat="1" ht="18">
+      <c r="A7" s="76"/>
+    </row>
+    <row r="8" spans="1:9" s="72" customFormat="1" ht="18">
+      <c r="A8" s="76"/>
+    </row>
+    <row r="9" spans="1:9" s="72" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A9" s="76"/>
+    </row>
+    <row r="10" spans="1:9" s="72" customFormat="1" ht="18">
+      <c r="A10" s="76"/>
+    </row>
+    <row r="11" spans="1:9" s="72" customFormat="1" ht="18">
+      <c r="A11" s="76"/>
+    </row>
+    <row r="12" spans="1:9" s="72" customFormat="1" ht="18">
+      <c r="A12" s="76"/>
+    </row>
+    <row r="13" spans="1:9" s="72" customFormat="1" ht="18">
+      <c r="A13" s="76"/>
+    </row>
+    <row r="14" spans="1:9" s="72" customFormat="1" ht="18">
+      <c r="A14" s="76"/>
+    </row>
+    <row r="15" spans="1:9" s="72" customFormat="1" ht="18">
+      <c r="A15" s="77"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+    </row>
+    <row r="16" spans="1:9" s="79" customFormat="1" ht="45">
+      <c r="A16" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+    </row>
+    <row r="17" spans="1:8" s="79" customFormat="1" ht="16.2">
+      <c r="A17" s="80"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+    </row>
+    <row r="18" spans="1:8" s="72" customFormat="1" ht="53.4">
+      <c r="A18" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+    </row>
+    <row r="19" spans="1:8" s="72" customFormat="1" ht="18">
+      <c r="A19" s="77"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+    </row>
+    <row r="20" spans="1:8" s="72" customFormat="1" ht="46.2">
+      <c r="A20" s="84"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+    </row>
+    <row r="21" spans="1:8" s="72" customFormat="1" ht="18">
+      <c r="A21" s="50"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+    </row>
+    <row r="22" spans="1:8" s="72" customFormat="1" ht="22.2" customHeight="1">
+      <c r="A22" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+    </row>
+    <row r="23" spans="1:8" s="72" customFormat="1" ht="18">
+      <c r="A23" s="77"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+    </row>
+    <row r="24" spans="1:8" s="72" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="77"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+    </row>
+    <row r="25" spans="1:8" s="72" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="77"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+    </row>
+    <row r="26" spans="1:8" s="72" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="77"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+    </row>
+    <row r="27" spans="1:8" s="72" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="77"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+    </row>
+    <row r="28" spans="1:8" s="72" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="77"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+    </row>
+    <row r="29" spans="1:8" s="89" customFormat="1" ht="22.2" customHeight="1">
+      <c r="A29" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+    </row>
+    <row r="30" spans="1:8" s="89" customFormat="1">
+      <c r="A30" s="90"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+    </row>
+    <row r="31" spans="1:8" s="89" customFormat="1">
+      <c r="A31" s="90"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+    </row>
+    <row r="32" spans="1:8" s="89" customFormat="1">
+      <c r="A32" s="90"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
+    </row>
+    <row r="33" spans="1:8" s="95" customFormat="1" ht="30" customHeight="1">
+      <c r="A33" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="93"/>
+      <c r="C33" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="93"/>
+      <c r="E33" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="93"/>
+      <c r="G33" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="93"/>
+    </row>
+    <row r="34" spans="1:8" s="95" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A34" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+    </row>
+    <row r="35" spans="1:8" s="72" customFormat="1" ht="18">
+      <c r="A35" s="77"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+    </row>
+    <row r="36" spans="1:8" s="72" customFormat="1" ht="19.2">
+      <c r="A36" s="96"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+    </row>
+    <row r="37" spans="1:8" s="72" customFormat="1" ht="18.600000000000001">
+      <c r="A37" s="97"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+    </row>
+    <row r="38" spans="1:8" s="72" customFormat="1"/>
+    <row r="55" spans="1:1">
+      <c r="A55" s="98"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="100"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="134" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="136"/>
+    </row>
+    <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="137" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="139"/>
+    </row>
+    <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="143" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="145"/>
+    </row>
+    <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="141"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="141"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="37">
+        <v>1</v>
+      </c>
+      <c r="C10" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="35">
+        <v>1</v>
+      </c>
+      <c r="G10" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="123"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="37">
+        <v>2</v>
+      </c>
+      <c r="C11" s="120" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="35">
+        <v>2</v>
+      </c>
+      <c r="G11" s="125" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="123"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="38">
+        <v>3</v>
+      </c>
+      <c r="C12" s="120" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="35">
+        <v>3</v>
+      </c>
+      <c r="G12" s="125" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="123"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="37">
+        <v>4</v>
+      </c>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="36"/>
+    </row>
+    <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="37">
+        <v>5</v>
+      </c>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="36"/>
+    </row>
+    <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="38">
+        <v>6</v>
+      </c>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="36"/>
+    </row>
+    <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="37">
+        <v>7</v>
+      </c>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="129" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="45">
+        <f>SUM(F10:F16)</f>
+        <v>6</v>
+      </c>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="46"/>
+    </row>
+    <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="109" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="109"/>
+      <c r="E19" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="116"/>
+    </row>
+    <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="39">
+        <v>1</v>
+      </c>
+      <c r="C20" s="112"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="119"/>
+    </row>
+    <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="40">
+        <v>2</v>
+      </c>
+      <c r="C21" s="112"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="119"/>
+    </row>
+    <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="41">
+        <v>3</v>
+      </c>
+      <c r="C22" s="110"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="108"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.6">
+      <c r="B24" s="43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.6">
+      <c r="B25" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.6">
+      <c r="B26" s="43"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.6">
+      <c r="B27" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="132" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="146" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="136"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="147">
+        <v>43665</v>
+      </c>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="148">
+        <v>43665</v>
+      </c>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="145"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
+      <c r="A8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="24">
+      <c r="A9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="37">
+        <v>1</v>
+      </c>
+      <c r="B10" s="120" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="35">
+        <v>3</v>
+      </c>
+      <c r="F10" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="123"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="37">
+        <v>2</v>
+      </c>
+      <c r="B11" s="120" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="35">
+        <v>2</v>
+      </c>
+      <c r="F11" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="38">
+        <v>3</v>
+      </c>
+      <c r="B12" s="120"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="101"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="37">
+        <v>4</v>
+      </c>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="37">
+        <v>5</v>
+      </c>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="38">
+        <v>6</v>
+      </c>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="37">
+        <v>7</v>
+      </c>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="129" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="45">
+        <f>SUM(E10:E16)</f>
+        <v>5</v>
+      </c>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="46"/>
+    </row>
+    <row r="18" spans="1:15" ht="16.2">
+      <c r="A18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="109" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="109"/>
+      <c r="D19" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="39">
+        <v>1</v>
+      </c>
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="40">
+        <v>2</v>
+      </c>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
+    </row>
+    <row r="22" spans="1:15" ht="16.2" thickBot="1">
+      <c r="A22" s="41">
+        <v>3</v>
+      </c>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="108"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="132" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="134" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="136"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="147">
+        <v>43666</v>
+      </c>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="148">
+        <v>43666</v>
+      </c>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="145"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
+      <c r="A8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="24">
+      <c r="A9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="37">
+        <v>1</v>
+      </c>
+      <c r="B10" s="120" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="35">
+        <v>3</v>
+      </c>
+      <c r="F10" s="125" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="123"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="37">
+        <v>2</v>
+      </c>
+      <c r="B11" s="120" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="35">
+        <v>3</v>
+      </c>
+      <c r="F11" s="125" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="38">
+        <v>3</v>
+      </c>
+      <c r="B12" s="120"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="101"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="37">
+        <v>4</v>
+      </c>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="37">
+        <v>5</v>
+      </c>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="38">
+        <v>6</v>
+      </c>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="37">
+        <v>7</v>
+      </c>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="129" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="45">
+        <f>SUM(E10:E16)</f>
+        <v>6</v>
+      </c>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="46"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.2">
+      <c r="A18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="109" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="109"/>
+      <c r="D19" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="39">
+        <v>1</v>
+      </c>
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="40">
+        <v>2</v>
+      </c>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A22" s="41">
+        <v>3</v>
+      </c>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="108"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="132" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="146" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="136"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="147">
+        <v>43667</v>
+      </c>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="148">
+        <v>43667</v>
+      </c>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="145"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
+      <c r="A8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="24">
+      <c r="A9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="37">
+        <v>1</v>
+      </c>
+      <c r="B10" s="120" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="35">
+        <v>2</v>
+      </c>
+      <c r="F10" s="125" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="123"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="37">
+        <v>2</v>
+      </c>
+      <c r="B11" s="120" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="35">
+        <v>4</v>
+      </c>
+      <c r="F11" s="125" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="38">
+        <v>3</v>
+      </c>
+      <c r="B12" s="120"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="101"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="37">
+        <v>4</v>
+      </c>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="37">
+        <v>5</v>
+      </c>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="38">
+        <v>6</v>
+      </c>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="37">
+        <v>7</v>
+      </c>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="129" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="45">
+        <f>SUM(E10:E16)</f>
+        <v>6</v>
+      </c>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="46"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.2">
+      <c r="A18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="109" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="109"/>
+      <c r="D19" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="39">
+        <v>1</v>
+      </c>
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="40">
+        <v>2</v>
+      </c>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A22" s="41">
+        <v>3</v>
+      </c>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -16630,28 +19649,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
@@ -16701,45 +19720,45 @@
         <v>1</v>
       </c>
       <c r="B5" s="146" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="110"/>
+        <v>67</v>
+      </c>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="136"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="147">
-        <v>43671</v>
-      </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="113"/>
+        <v>43668</v>
+      </c>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="148">
-        <v>43671</v>
-      </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
+        <v>43668</v>
+      </c>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="145"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="18" t="s">
@@ -16758,19 +19777,19 @@
       <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142"/>
       <c r="E9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="114" t="s">
+      <c r="F9" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="116"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
       <c r="I9" s="34" t="s">
         <v>9</v>
       </c>
@@ -16779,19 +19798,19 @@
       <c r="A10" s="37">
         <v>1</v>
       </c>
-      <c r="B10" s="131" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
+      <c r="B10" s="120" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
       <c r="E10" s="35">
         <v>2</v>
       </c>
-      <c r="F10" s="127" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
+      <c r="F10" s="125" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="123"/>
+      <c r="H10" s="124"/>
       <c r="I10" s="101" t="s">
         <v>55</v>
       </c>
@@ -16800,19 +19819,19 @@
       <c r="A11" s="37">
         <v>2</v>
       </c>
-      <c r="B11" s="131" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
+      <c r="B11" s="120" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="35">
-        <v>2</v>
-      </c>
-      <c r="F11" s="127" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
+        <v>4</v>
+      </c>
+      <c r="F11" s="125" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
       <c r="I11" s="101" t="s">
         <v>55</v>
       </c>
@@ -16821,19 +19840,13 @@
       <c r="A12" s="38">
         <v>3</v>
       </c>
-      <c r="B12" s="131" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="35">
-        <v>3</v>
-      </c>
-      <c r="F12" s="127" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
       <c r="I12" s="101" t="s">
         <v>55</v>
       </c>
@@ -16842,68 +19855,68 @@
       <c r="A13" s="37">
         <v>4</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="37">
         <v>5</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="38">
         <v>6</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="37">
         <v>7</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
       <c r="E17" s="45">
         <f>SUM(E10:E16)</f>
-        <v>7</v>
-      </c>
-      <c r="F17" s="120"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
+        <v>6</v>
+      </c>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
       <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -16923,2194 +19936,57 @@
       <c r="A19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="135"/>
-      <c r="D19" s="140" t="s">
+      <c r="C19" s="109"/>
+      <c r="D19" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="142"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="39">
         <v>1</v>
       </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="145"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="40">
         <v>2</v>
       </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="145"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="41">
         <v>3</v>
       </c>
-      <c r="B22" s="136"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="134"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E111"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.59765625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" style="58" customWidth="1"/>
-    <col min="3" max="3" width="46.19921875" style="58" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" style="58" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="58"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="28.2">
-      <c r="A1" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-    </row>
-    <row r="2" spans="1:5" ht="19.95" customHeight="1">
-      <c r="A2" s="59"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.6">
-      <c r="A3" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="64" customFormat="1" ht="15.6">
-      <c r="A4" s="61">
-        <v>1</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="63">
-        <v>40142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="64" customFormat="1">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="63"/>
-    </row>
-    <row r="6" spans="1:5" s="64" customFormat="1" ht="15.6">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
-    </row>
-    <row r="7" spans="1:5" s="64" customFormat="1" ht="15.6">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
-    </row>
-    <row r="8" spans="1:5" s="64" customFormat="1">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="63"/>
-    </row>
-    <row r="9" spans="1:5" s="64" customFormat="1" ht="15.6">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-    </row>
-    <row r="10" spans="1:5" s="64" customFormat="1" ht="15.6">
-      <c r="A10" s="61"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-    </row>
-    <row r="11" spans="1:5" s="64" customFormat="1">
-      <c r="A11" s="61"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="63"/>
-    </row>
-    <row r="12" spans="1:5" s="64" customFormat="1" ht="15.6">
-      <c r="A12" s="61"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-    </row>
-    <row r="13" spans="1:5" s="64" customFormat="1">
-      <c r="A13" s="61"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="63"/>
-    </row>
-    <row r="14" spans="1:5" s="64" customFormat="1" ht="15.6">
-      <c r="A14" s="61"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-    </row>
-    <row r="15" spans="1:5" s="64" customFormat="1">
-      <c r="A15" s="61"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="63"/>
-    </row>
-    <row r="16" spans="1:5" s="64" customFormat="1">
-      <c r="A16" s="61"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="63"/>
-    </row>
-    <row r="17" spans="1:4" s="64" customFormat="1">
-      <c r="A17" s="61"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="63"/>
-    </row>
-    <row r="18" spans="1:4" s="64" customFormat="1">
-      <c r="A18" s="61"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="63"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.6">
-      <c r="A19" s="61"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="63"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.6">
-      <c r="A20" s="61"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="63"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.6">
-      <c r="A21" s="61"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="63"/>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="70"/>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="70"/>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="70"/>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="70"/>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="70"/>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="70"/>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="70"/>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="70"/>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="70"/>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="70"/>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="70"/>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="70"/>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="70"/>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="70"/>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="70"/>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="70"/>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="70"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I56"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.6"/>
-  <cols>
-    <col min="1" max="1" width="9.19921875" style="99" customWidth="1"/>
-    <col min="2" max="4" width="9.59765625" style="99" customWidth="1"/>
-    <col min="5" max="5" width="13.09765625" style="99" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" style="99" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="99" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" style="99" customWidth="1"/>
-    <col min="9" max="16384" width="8" style="99"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="72" customFormat="1" ht="22.8">
-      <c r="A1" s="71"/>
-    </row>
-    <row r="2" spans="1:9" s="72" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A2" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="75" customFormat="1" ht="22.8">
-      <c r="A3" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-    </row>
-    <row r="4" spans="1:9" s="72" customFormat="1" ht="17.399999999999999">
-      <c r="A4" s="47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="72" customFormat="1" ht="18">
-      <c r="A5" s="76"/>
-    </row>
-    <row r="6" spans="1:9" s="72" customFormat="1" ht="18">
-      <c r="A6" s="76"/>
-    </row>
-    <row r="7" spans="1:9" s="72" customFormat="1" ht="18">
-      <c r="A7" s="76"/>
-    </row>
-    <row r="8" spans="1:9" s="72" customFormat="1" ht="18">
-      <c r="A8" s="76"/>
-    </row>
-    <row r="9" spans="1:9" s="72" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A9" s="76"/>
-    </row>
-    <row r="10" spans="1:9" s="72" customFormat="1" ht="18">
-      <c r="A10" s="76"/>
-    </row>
-    <row r="11" spans="1:9" s="72" customFormat="1" ht="18">
-      <c r="A11" s="76"/>
-    </row>
-    <row r="12" spans="1:9" s="72" customFormat="1" ht="18">
-      <c r="A12" s="76"/>
-    </row>
-    <row r="13" spans="1:9" s="72" customFormat="1" ht="18">
-      <c r="A13" s="76"/>
-    </row>
-    <row r="14" spans="1:9" s="72" customFormat="1" ht="18">
-      <c r="A14" s="76"/>
-    </row>
-    <row r="15" spans="1:9" s="72" customFormat="1" ht="18">
-      <c r="A15" s="77"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-    </row>
-    <row r="16" spans="1:9" s="79" customFormat="1" ht="45">
-      <c r="A16" s="104" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-    </row>
-    <row r="17" spans="1:8" s="79" customFormat="1" ht="16.2">
-      <c r="A17" s="80"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-    </row>
-    <row r="18" spans="1:8" s="72" customFormat="1" ht="53.4">
-      <c r="A18" s="83" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-    </row>
-    <row r="19" spans="1:8" s="72" customFormat="1" ht="18">
-      <c r="A19" s="77"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-    </row>
-    <row r="20" spans="1:8" s="72" customFormat="1" ht="46.2">
-      <c r="A20" s="84"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-    </row>
-    <row r="21" spans="1:8" s="72" customFormat="1" ht="18">
-      <c r="A21" s="50"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-    </row>
-    <row r="22" spans="1:8" s="72" customFormat="1" ht="22.2" customHeight="1">
-      <c r="A22" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-    </row>
-    <row r="23" spans="1:8" s="72" customFormat="1" ht="18">
-      <c r="A23" s="77"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-    </row>
-    <row r="24" spans="1:8" s="72" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="77"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-    </row>
-    <row r="25" spans="1:8" s="72" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="77"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-    </row>
-    <row r="26" spans="1:8" s="72" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="77"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-    </row>
-    <row r="27" spans="1:8" s="72" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="77"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-    </row>
-    <row r="28" spans="1:8" s="72" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="77"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-    </row>
-    <row r="29" spans="1:8" s="89" customFormat="1" ht="22.2" customHeight="1">
-      <c r="A29" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-    </row>
-    <row r="30" spans="1:8" s="89" customFormat="1">
-      <c r="A30" s="90"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
-    </row>
-    <row r="31" spans="1:8" s="89" customFormat="1">
-      <c r="A31" s="90"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
-    </row>
-    <row r="32" spans="1:8" s="89" customFormat="1">
-      <c r="A32" s="90"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="91"/>
-    </row>
-    <row r="33" spans="1:8" s="95" customFormat="1" ht="30" customHeight="1">
-      <c r="A33" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="93"/>
-      <c r="C33" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="93"/>
-      <c r="E33" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="93"/>
-      <c r="G33" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" s="93"/>
-    </row>
-    <row r="34" spans="1:8" s="95" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A34" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-    </row>
-    <row r="35" spans="1:8" s="72" customFormat="1" ht="18">
-      <c r="A35" s="77"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-    </row>
-    <row r="36" spans="1:8" s="72" customFormat="1" ht="19.2">
-      <c r="A36" s="96"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-    </row>
-    <row r="37" spans="1:8" s="72" customFormat="1" ht="18.600000000000001">
-      <c r="A37" s="97"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-    </row>
-    <row r="38" spans="1:8" s="72" customFormat="1"/>
-    <row r="55" spans="1:1">
-      <c r="A55" s="98"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="100"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="106" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-    </row>
-    <row r="2" spans="2:10" ht="7.5" customHeight="1">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="108" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="110"/>
-    </row>
-    <row r="6" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="113"/>
-    </row>
-    <row r="7" spans="2:10" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="117" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
-    </row>
-    <row r="8" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="114" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="115"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="37">
-        <v>1</v>
-      </c>
-      <c r="C10" s="131" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="35">
-        <v>1</v>
-      </c>
-      <c r="G10" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="124"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="37">
-        <v>2</v>
-      </c>
-      <c r="C11" s="131" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="35">
-        <v>2</v>
-      </c>
-      <c r="G11" s="127" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="124"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="38">
-        <v>3</v>
-      </c>
-      <c r="C12" s="131" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="35">
-        <v>3</v>
-      </c>
-      <c r="G12" s="127" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="124"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="37">
-        <v>4</v>
-      </c>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="37">
-        <v>5</v>
-      </c>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="36"/>
-    </row>
-    <row r="15" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="38">
-        <v>6</v>
-      </c>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="37">
-        <v>7</v>
-      </c>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="2:10" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="128" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="45">
-        <f>SUM(F10:F16)</f>
-        <v>6</v>
-      </c>
-      <c r="G17" s="120"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="46"/>
-    </row>
-    <row r="18" spans="2:10" s="10" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B18" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="135" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="135"/>
-      <c r="E19" s="140" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="142"/>
-    </row>
-    <row r="20" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="39">
-        <v>1</v>
-      </c>
-      <c r="C20" s="138"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="145"/>
-    </row>
-    <row r="21" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="40">
-        <v>2</v>
-      </c>
-      <c r="C21" s="138"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="145"/>
-    </row>
-    <row r="22" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="41">
-        <v>3</v>
-      </c>
-      <c r="C22" s="136"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="134"/>
-    </row>
-    <row r="24" spans="2:10" ht="15.6">
-      <c r="B24" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="15.6">
-      <c r="B25" s="43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="15.6">
-      <c r="B26" s="43"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.6">
-      <c r="B27" s="43"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="106" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-    </row>
-    <row r="2" spans="1:9" ht="21.6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.2">
-      <c r="A4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="146" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="110"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="147">
-        <v>43665</v>
-      </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="113"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="148">
-        <v>43665</v>
-      </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.2">
-      <c r="A8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" ht="24">
-      <c r="A9" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="114" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="37">
-        <v>1</v>
-      </c>
-      <c r="B10" s="131" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="35">
-        <v>3</v>
-      </c>
-      <c r="F10" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="37">
-        <v>2</v>
-      </c>
-      <c r="B11" s="131" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="35">
-        <v>2</v>
-      </c>
-      <c r="F11" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="38">
-        <v>3</v>
-      </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="101"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="37">
-        <v>4</v>
-      </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="36"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="37">
-        <v>5</v>
-      </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="36"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="38">
-        <v>6</v>
-      </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="37">
-        <v>7</v>
-      </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="36"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="128" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="45">
-        <f>SUM(E10:E16)</f>
-        <v>5</v>
-      </c>
-      <c r="F17" s="120"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="46"/>
-    </row>
-    <row r="18" spans="1:15" ht="16.2">
-      <c r="A18" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="135" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="135"/>
-      <c r="D19" s="140" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="142"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="39">
-        <v>1</v>
-      </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="145"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="40">
-        <v>2</v>
-      </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="145"/>
-    </row>
-    <row r="22" spans="1:15" ht="16.2" thickBot="1">
-      <c r="A22" s="41">
-        <v>3</v>
-      </c>
-      <c r="B22" s="136"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="133"/>
-      <c r="L22" s="133"/>
-      <c r="M22" s="133"/>
-      <c r="N22" s="133"/>
-      <c r="O22" s="134"/>
-    </row>
-  </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="106" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-    </row>
-    <row r="2" spans="1:9" ht="21.6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.2">
-      <c r="A4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="108" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="110"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="147">
-        <v>43666</v>
-      </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="113"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="148">
-        <v>43666</v>
-      </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.2">
-      <c r="A8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" ht="24">
-      <c r="A9" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="114" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="37">
-        <v>1</v>
-      </c>
-      <c r="B10" s="131" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="35">
-        <v>3</v>
-      </c>
-      <c r="F10" s="127" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="37">
-        <v>2</v>
-      </c>
-      <c r="B11" s="131" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="35">
-        <v>3</v>
-      </c>
-      <c r="F11" s="127" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="38">
-        <v>3</v>
-      </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="101"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="37">
-        <v>4</v>
-      </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="36"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="37">
-        <v>5</v>
-      </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="36"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="38">
-        <v>6</v>
-      </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="37">
-        <v>7</v>
-      </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="36"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="128" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="45">
-        <f>SUM(E10:E16)</f>
-        <v>6</v>
-      </c>
-      <c r="F17" s="120"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="46"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.2">
-      <c r="A18" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="135" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="135"/>
-      <c r="D19" s="140" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="142"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="39">
-        <v>1</v>
-      </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="145"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="40">
-        <v>2</v>
-      </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="145"/>
-    </row>
-    <row r="22" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A22" s="41">
-        <v>3</v>
-      </c>
-      <c r="B22" s="136"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="134"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="106" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-    </row>
-    <row r="2" spans="1:9" ht="21.6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.2">
-      <c r="A4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="146" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="110"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="147">
-        <v>43667</v>
-      </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="113"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="148">
-        <v>43667</v>
-      </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.2">
-      <c r="A8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" ht="24">
-      <c r="A9" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="114" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="37">
-        <v>1</v>
-      </c>
-      <c r="B10" s="131" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="35">
-        <v>2</v>
-      </c>
-      <c r="F10" s="127" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="37">
-        <v>2</v>
-      </c>
-      <c r="B11" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="35">
-        <v>4</v>
-      </c>
-      <c r="F11" s="127" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="38">
-        <v>3</v>
-      </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="101"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="37">
-        <v>4</v>
-      </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="36"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="37">
-        <v>5</v>
-      </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="36"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="38">
-        <v>6</v>
-      </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="37">
-        <v>7</v>
-      </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="36"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="128" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="45">
-        <f>SUM(E10:E16)</f>
-        <v>6</v>
-      </c>
-      <c r="F17" s="120"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="46"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.2">
-      <c r="A18" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="135" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="135"/>
-      <c r="D19" s="140" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="142"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="39">
-        <v>1</v>
-      </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="145"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="40">
-        <v>2</v>
-      </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="145"/>
-    </row>
-    <row r="22" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A22" s="41">
-        <v>3</v>
-      </c>
-      <c r="B22" s="136"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="134"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -19157,28 +20033,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:H10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
@@ -19228,45 +20104,45 @@
         <v>1</v>
       </c>
       <c r="B5" s="146" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="110"/>
+        <v>72</v>
+      </c>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="136"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="147">
-        <v>43668</v>
-      </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="113"/>
+        <v>43669</v>
+      </c>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="148">
-        <v>43668</v>
-      </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
+        <v>43669</v>
+      </c>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="145"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="18" t="s">
@@ -19285,19 +20161,19 @@
       <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142"/>
       <c r="E9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="114" t="s">
+      <c r="F9" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="116"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
       <c r="I9" s="34" t="s">
         <v>9</v>
       </c>
@@ -19306,19 +20182,19 @@
       <c r="A10" s="37">
         <v>1</v>
       </c>
-      <c r="B10" s="131" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
+      <c r="B10" s="120" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
       <c r="E10" s="35">
-        <v>2</v>
-      </c>
-      <c r="F10" s="127" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
+        <v>3</v>
+      </c>
+      <c r="F10" s="125" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="123"/>
+      <c r="H10" s="124"/>
       <c r="I10" s="101" t="s">
         <v>55</v>
       </c>
@@ -19327,19 +20203,19 @@
       <c r="A11" s="37">
         <v>2</v>
       </c>
-      <c r="B11" s="131" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
+      <c r="B11" s="120" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="35">
         <v>4</v>
       </c>
-      <c r="F11" s="127" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
+      <c r="F11" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="123"/>
+      <c r="H11" s="124"/>
       <c r="I11" s="101" t="s">
         <v>55</v>
       </c>
@@ -19348,83 +20224,81 @@
       <c r="A12" s="38">
         <v>3</v>
       </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="101" t="s">
-        <v>55</v>
-      </c>
+      <c r="F12" s="125"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="101"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="37">
         <v>4</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="124"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="37">
         <v>5</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="38">
         <v>6</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="37">
         <v>7</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
       <c r="E17" s="45">
         <f>SUM(E10:E16)</f>
-        <v>6</v>
-      </c>
-      <c r="F17" s="120"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
+        <v>7</v>
+      </c>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
       <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -19444,57 +20318,57 @@
       <c r="A19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="135"/>
-      <c r="D19" s="140" t="s">
+      <c r="C19" s="109"/>
+      <c r="D19" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="142"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="39">
         <v>1</v>
       </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="145"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="40">
         <v>2</v>
       </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="145"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="41">
         <v>3</v>
       </c>
-      <c r="B22" s="136"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="134"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -19539,386 +20413,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="106" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-    </row>
-    <row r="2" spans="1:9" ht="21.6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.2">
-      <c r="A4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="146" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="110"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="147">
-        <v>43669</v>
-      </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="113"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="148">
-        <v>43669</v>
-      </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.2">
-      <c r="A8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" ht="24">
-      <c r="A9" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="114" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="37">
-        <v>1</v>
-      </c>
-      <c r="B10" s="131" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="35">
-        <v>3</v>
-      </c>
-      <c r="F10" s="127" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="37">
-        <v>2</v>
-      </c>
-      <c r="B11" s="131" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="35">
-        <v>4</v>
-      </c>
-      <c r="F11" s="127" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="38">
-        <v>3</v>
-      </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="101"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="37">
-        <v>4</v>
-      </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="36"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="37">
-        <v>5</v>
-      </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="36"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="38">
-        <v>6</v>
-      </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="37">
-        <v>7</v>
-      </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="36"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="128" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="45">
-        <f>SUM(E10:E16)</f>
-        <v>7</v>
-      </c>
-      <c r="F17" s="120"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="46"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.2">
-      <c r="A18" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="135" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="135"/>
-      <c r="D19" s="140" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="142"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="39">
-        <v>1</v>
-      </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="145"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="40">
-        <v>2</v>
-      </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="145"/>
-    </row>
-    <row r="22" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A22" s="41">
-        <v>3</v>
-      </c>
-      <c r="B22" s="136"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="134"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:I22"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>